--- a/RESULT.xlsx
+++ b/RESULT.xlsx
@@ -498,14 +498,16 @@
         <v>0.78606</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0357</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>0.66126</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.7502</v>
+      </c>
       <c r="G2" t="n">
         <v>13.978</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.1493</v>
+        <v>6.2986</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -531,14 +533,16 @@
         <v>0.78606</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0357</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>0.66126</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.7502</v>
+      </c>
       <c r="G3" t="n">
         <v>13.978</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.1493</v>
+        <v>6.2986</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -564,14 +568,16 @@
         <v>0.77922</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0245</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>0.53391</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.918</v>
+      </c>
       <c r="G4" t="n">
         <v>13.891</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.1765</v>
+        <v>3.1765</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -597,14 +603,16 @@
         <v>0.77922</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0245</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>0.53391</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.918</v>
+      </c>
       <c r="G5" t="n">
         <v>13.891</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.1765</v>
+        <v>3.1765</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -630,14 +638,16 @@
         <v>0.74908</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0358</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>0.5666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.6353</v>
+      </c>
       <c r="G6" t="n">
         <v>13.722</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.6122</v>
+        <v>4.1049</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -663,14 +673,16 @@
         <v>0.74908</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0358</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+        <v>0.5666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.6353</v>
+      </c>
       <c r="G7" t="n">
         <v>13.722</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.6122</v>
+        <v>4.1049</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -696,14 +708,16 @@
         <v>0.7466699999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0422</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>0.5989</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.3453</v>
+      </c>
       <c r="G8" t="n">
         <v>13.488</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.5264</v>
+        <v>5.0528</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -729,14 +743,16 @@
         <v>0.7466699999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0422</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>0.5989</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.3453</v>
+      </c>
       <c r="G9" t="n">
         <v>13.488</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.5264</v>
+        <v>5.0528</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -762,14 +778,16 @@
         <v>0.7452299999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0364</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>0.55994</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.6937</v>
+      </c>
       <c r="G10" t="n">
         <v>14.099</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.5595</v>
+        <v>4.022</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -795,14 +813,16 @@
         <v>0.7452299999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0364</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>0.55994</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.6937</v>
+      </c>
       <c r="G11" t="n">
         <v>14.099</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.5595</v>
+        <v>4.022</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -828,14 +848,16 @@
         <v>0.71251</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0411</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>0.50342</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.1729</v>
+      </c>
       <c r="G12" t="n">
         <v>13.52</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.1685</v>
+        <v>3.4077</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -861,14 +883,16 @@
         <v>0.71251</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0411</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>0.50342</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.1729</v>
+      </c>
       <c r="G13" t="n">
         <v>13.52</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.1685</v>
+        <v>3.4077</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -894,14 +918,16 @@
         <v>0.7023200000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0298</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+        <v>0.29301</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9.751899999999999</v>
+      </c>
       <c r="G14" t="n">
         <v>13.338</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.1448</v>
+        <v>1.7159</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -927,14 +953,16 @@
         <v>0.7023200000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0298</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
+        <v>0.29301</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.751899999999999</v>
+      </c>
       <c r="G15" t="n">
         <v>13.338</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.1448</v>
+        <v>1.7159</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -960,14 +988,16 @@
         <v>0.70152</v>
       </c>
       <c r="E16" t="n">
-        <v>1.0332</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>0.36987</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.2066</v>
+      </c>
       <c r="G16" t="n">
         <v>13.131</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.1152</v>
+        <v>2.1152</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -993,14 +1023,16 @@
         <v>0.70152</v>
       </c>
       <c r="E17" t="n">
-        <v>1.0332</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
+        <v>0.36987</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.2066</v>
+      </c>
       <c r="G17" t="n">
         <v>13.131</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.1152</v>
+        <v>2.1152</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1026,14 +1058,16 @@
         <v>0.70135</v>
       </c>
       <c r="E18" t="n">
-        <v>1.0332</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
+        <v>0.36952</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.209099999999999</v>
+      </c>
       <c r="G18" t="n">
         <v>12.931</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.1136</v>
+        <v>2.1136</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1059,14 +1093,16 @@
         <v>0.70135</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0332</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+        <v>0.36952</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.209099999999999</v>
+      </c>
       <c r="G19" t="n">
         <v>12.931</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.1136</v>
+        <v>2.1136</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1092,14 +1128,16 @@
         <v>0.70098</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0332</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
+        <v>0.36874</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.2148</v>
+      </c>
       <c r="G20" t="n">
         <v>13.152</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.1099</v>
+        <v>2.1099</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1125,14 +1163,16 @@
         <v>0.70098</v>
       </c>
       <c r="E21" t="n">
-        <v>1.0332</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>0.36874</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.2148</v>
+      </c>
       <c r="G21" t="n">
         <v>13.152</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.1099</v>
+        <v>2.1099</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1158,14 +1198,16 @@
         <v>0.7003200000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0428</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+        <v>0.48236</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.3444</v>
+      </c>
       <c r="G22" t="n">
         <v>12.811</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.0447</v>
+        <v>3.2132</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1191,14 +1233,16 @@
         <v>0.7003200000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0428</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>0.48236</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.3444</v>
+      </c>
       <c r="G23" t="n">
         <v>12.811</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.0447</v>
+        <v>3.2132</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1224,14 +1268,16 @@
         <v>0.69873</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0377</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
+        <v>0.42758</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.774800000000001</v>
+      </c>
       <c r="G24" t="n">
         <v>13.02</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.0616</v>
+        <v>2.577</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1257,14 +1303,16 @@
         <v>0.69873</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0377</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
+        <v>0.42758</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.774800000000001</v>
+      </c>
       <c r="G25" t="n">
         <v>13.02</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.0616</v>
+        <v>2.577</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1290,14 +1338,16 @@
         <v>0.69813</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0335</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>0.36272</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.258699999999999</v>
+      </c>
       <c r="G26" t="n">
         <v>13.836</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.0814</v>
+        <v>2.0814</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1323,14 +1373,16 @@
         <v>0.69813</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0335</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
+        <v>0.36272</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.258699999999999</v>
+      </c>
       <c r="G27" t="n">
         <v>13.836</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.0814</v>
+        <v>2.0814</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1356,14 +1408,16 @@
         <v>0.69779</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0432</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+        <v>0.47801</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.3794</v>
+      </c>
       <c r="G28" t="n">
         <v>13.554</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.0204</v>
+        <v>3.1749</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1389,14 +1443,16 @@
         <v>0.69779</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0432</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+        <v>0.47801</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.3794</v>
+      </c>
       <c r="G29" t="n">
         <v>13.554</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.0204</v>
+        <v>3.1749</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1422,14 +1478,16 @@
         <v>0.69774</v>
       </c>
       <c r="E30" t="n">
-        <v>1.0378</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.42571</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.789199999999999</v>
+      </c>
       <c r="G30" t="n">
         <v>14.077</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.052</v>
+        <v>2.5649</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1455,14 +1513,16 @@
         <v>0.69774</v>
       </c>
       <c r="E31" t="n">
-        <v>1.0378</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+        <v>0.42571</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.789199999999999</v>
+      </c>
       <c r="G31" t="n">
         <v>14.077</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.052</v>
+        <v>2.5649</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1488,14 +1548,16 @@
         <v>0.69665</v>
       </c>
       <c r="E32" t="n">
-        <v>1.0379</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
+        <v>0.42364</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.805</v>
+      </c>
       <c r="G32" t="n">
         <v>13.594</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.0414</v>
+        <v>2.5517</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1521,14 +1583,16 @@
         <v>0.69665</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0379</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
+        <v>0.42364</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8.805</v>
+      </c>
       <c r="G33" t="n">
         <v>13.594</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.0414</v>
+        <v>2.5517</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1554,14 +1618,16 @@
         <v>0.6964399999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>1.0607</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
+        <v>0.55633</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7.7252</v>
+      </c>
       <c r="G34" t="n">
         <v>13.404</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.9119</v>
+        <v>4.9708</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1587,14 +1653,16 @@
         <v>0.6964399999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>1.0607</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
+        <v>0.55633</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7.7252</v>
+      </c>
       <c r="G35" t="n">
         <v>13.404</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.9119</v>
+        <v>4.9708</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1620,14 +1688,16 @@
         <v>0.69622</v>
       </c>
       <c r="E36" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+        <v>0.55602</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7.728</v>
+      </c>
       <c r="G36" t="n">
         <v>13.221</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.9099</v>
+        <v>4.9657</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1653,14 +1723,16 @@
         <v>0.69622</v>
       </c>
       <c r="E37" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
+        <v>0.55602</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7.728</v>
+      </c>
       <c r="G37" t="n">
         <v>13.221</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.9099</v>
+        <v>4.9657</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1686,14 +1758,16 @@
         <v>0.69621</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0434</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
+        <v>0.47526</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8.401400000000001</v>
+      </c>
       <c r="G38" t="n">
         <v>13.454</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.0052</v>
+        <v>3.1511</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1719,14 +1793,16 @@
         <v>0.69621</v>
       </c>
       <c r="E39" t="n">
-        <v>1.0434</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
+        <v>0.47526</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8.401400000000001</v>
+      </c>
       <c r="G39" t="n">
         <v>13.454</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.0052</v>
+        <v>3.1511</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -1752,14 +1828,16 @@
         <v>0.6962</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
+        <v>0.55599</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7.7282</v>
+      </c>
       <c r="G40" t="n">
         <v>13.191</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.9097</v>
+        <v>4.9653</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -1785,14 +1863,16 @@
         <v>0.6962</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
+        <v>0.55599</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7.7282</v>
+      </c>
       <c r="G41" t="n">
         <v>13.191</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.9097</v>
+        <v>4.9653</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -1818,14 +1898,16 @@
         <v>0.69604</v>
       </c>
       <c r="E42" t="n">
-        <v>1.038</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
+        <v>0.42248</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8.8139</v>
+      </c>
       <c r="G42" t="n">
         <v>12.511</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.0355</v>
+        <v>2.5444</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -1851,14 +1933,16 @@
         <v>0.69604</v>
       </c>
       <c r="E43" t="n">
-        <v>1.038</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
+        <v>0.42248</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8.8139</v>
+      </c>
       <c r="G43" t="n">
         <v>12.511</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.0355</v>
+        <v>2.5444</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -1884,14 +1968,16 @@
         <v>0.69592</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
+        <v>0.55558</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7.7318</v>
+      </c>
       <c r="G44" t="n">
         <v>13.431</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.9072</v>
+        <v>4.9587</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -1917,14 +2003,16 @@
         <v>0.69592</v>
       </c>
       <c r="E45" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F45" t="inlineStr"/>
+        <v>0.55558</v>
+      </c>
+      <c r="F45" t="n">
+        <v>7.7318</v>
+      </c>
       <c r="G45" t="n">
         <v>13.431</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.9072</v>
+        <v>4.9587</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -1950,14 +2038,16 @@
         <v>0.69582</v>
       </c>
       <c r="E46" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
+        <v>0.55542</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7.7332</v>
+      </c>
       <c r="G46" t="n">
         <v>13.361</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.9062</v>
+        <v>4.9562</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -1983,14 +2073,16 @@
         <v>0.69582</v>
       </c>
       <c r="E47" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
+        <v>0.55542</v>
+      </c>
+      <c r="F47" t="n">
+        <v>7.7332</v>
+      </c>
       <c r="G47" t="n">
         <v>13.361</v>
       </c>
       <c r="H47" t="n">
-        <v>-1.9062</v>
+        <v>4.9562</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2016,14 +2108,16 @@
         <v>0.69578</v>
       </c>
       <c r="E48" t="n">
-        <v>1.0338</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
+        <v>0.35776</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9.294700000000001</v>
+      </c>
       <c r="G48" t="n">
         <v>12.557</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.0584</v>
+        <v>2.0584</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2049,14 +2143,16 @@
         <v>0.69578</v>
       </c>
       <c r="E49" t="n">
-        <v>1.0338</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
+        <v>0.35776</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.294700000000001</v>
+      </c>
       <c r="G49" t="n">
         <v>12.557</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.0584</v>
+        <v>2.0584</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2082,14 +2178,16 @@
         <v>0.69537</v>
       </c>
       <c r="E50" t="n">
-        <v>1.0609</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
+        <v>0.55477</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7.7388</v>
+      </c>
       <c r="G50" t="n">
         <v>13.154</v>
       </c>
       <c r="H50" t="n">
-        <v>-1.9022</v>
+        <v>4.9458</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2115,14 +2213,16 @@
         <v>0.69537</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0609</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
+        <v>0.55477</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7.7388</v>
+      </c>
       <c r="G51" t="n">
         <v>13.154</v>
       </c>
       <c r="H51" t="n">
-        <v>-1.9022</v>
+        <v>4.9458</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2148,14 +2248,16 @@
         <v>0.69529</v>
       </c>
       <c r="E52" t="n">
-        <v>1.0609</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
+        <v>0.55466</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7.7398</v>
+      </c>
       <c r="G52" t="n">
         <v>13.553</v>
       </c>
       <c r="H52" t="n">
-        <v>-1.9015</v>
+        <v>4.944</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2181,14 +2283,16 @@
         <v>0.69529</v>
       </c>
       <c r="E53" t="n">
-        <v>1.0609</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
+        <v>0.55466</v>
+      </c>
+      <c r="F53" t="n">
+        <v>7.7398</v>
+      </c>
       <c r="G53" t="n">
         <v>13.553</v>
       </c>
       <c r="H53" t="n">
-        <v>-1.9015</v>
+        <v>4.944</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2214,14 +2318,16 @@
         <v>0.6952</v>
       </c>
       <c r="E54" t="n">
-        <v>1.061</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
+        <v>0.55452</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7.741</v>
+      </c>
       <c r="G54" t="n">
         <v>13.362</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.9007</v>
+        <v>4.9417</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2247,14 +2353,16 @@
         <v>0.6952</v>
       </c>
       <c r="E55" t="n">
-        <v>1.061</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
+        <v>0.55452</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7.741</v>
+      </c>
       <c r="G55" t="n">
         <v>13.362</v>
       </c>
       <c r="H55" t="n">
-        <v>-1.9007</v>
+        <v>4.9417</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2280,14 +2388,16 @@
         <v>0.69516</v>
       </c>
       <c r="E56" t="n">
-        <v>1.061</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
+        <v>0.55446</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7.7415</v>
+      </c>
       <c r="G56" t="n">
         <v>13.307</v>
       </c>
       <c r="H56" t="n">
-        <v>-1.9003</v>
+        <v>4.9408</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2313,14 +2423,16 @@
         <v>0.69516</v>
       </c>
       <c r="E57" t="n">
-        <v>1.061</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
+        <v>0.55446</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7.7415</v>
+      </c>
       <c r="G57" t="n">
         <v>13.307</v>
       </c>
       <c r="H57" t="n">
-        <v>-1.9003</v>
+        <v>4.9408</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2346,14 +2458,16 @@
         <v>0.69509</v>
       </c>
       <c r="E58" t="n">
-        <v>1.0381</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
+        <v>0.42067</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.8276</v>
+      </c>
       <c r="G58" t="n">
         <v>14.033</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.0264</v>
+        <v>2.533</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2379,14 +2493,16 @@
         <v>0.69509</v>
       </c>
       <c r="E59" t="n">
-        <v>1.0381</v>
-      </c>
-      <c r="F59" t="inlineStr"/>
+        <v>0.42067</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8.8276</v>
+      </c>
       <c r="G59" t="n">
         <v>14.033</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.0264</v>
+        <v>2.533</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2412,14 +2528,16 @@
         <v>0.6948800000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>1.0381</v>
-      </c>
-      <c r="F60" t="inlineStr"/>
+        <v>0.42027</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8.8307</v>
+      </c>
       <c r="G60" t="n">
         <v>13.183</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.0243</v>
+        <v>2.5304</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -2445,14 +2563,16 @@
         <v>0.6948800000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>1.0381</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
+        <v>0.42027</v>
+      </c>
+      <c r="F61" t="n">
+        <v>8.8307</v>
+      </c>
       <c r="G61" t="n">
         <v>13.183</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.0243</v>
+        <v>2.5304</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2478,14 +2598,16 @@
         <v>0.69289</v>
       </c>
       <c r="E62" t="n">
-        <v>1.0384</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
+        <v>0.41649</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.859500000000001</v>
+      </c>
       <c r="G62" t="n">
         <v>12.633</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.0054</v>
+        <v>2.5068</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2511,14 +2633,16 @@
         <v>0.69289</v>
       </c>
       <c r="E63" t="n">
-        <v>1.0384</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+        <v>0.41649</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8.859500000000001</v>
+      </c>
       <c r="G63" t="n">
         <v>12.633</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.0054</v>
+        <v>2.5068</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2544,14 +2668,16 @@
         <v>0.69278</v>
       </c>
       <c r="E64" t="n">
-        <v>1.0384</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
+        <v>0.41628</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.8611</v>
+      </c>
       <c r="G64" t="n">
         <v>12.539</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.0044</v>
+        <v>2.5055</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2577,14 +2703,16 @@
         <v>0.69278</v>
       </c>
       <c r="E65" t="n">
-        <v>1.0512</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
+        <v>0.51357</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8.089</v>
+      </c>
       <c r="G65" t="n">
         <v>12.711</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.9328</v>
+        <v>3.8657</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2610,14 +2738,16 @@
         <v>0.69278</v>
       </c>
       <c r="E66" t="n">
-        <v>1.0384</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
+        <v>0.41628</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8.8611</v>
+      </c>
       <c r="G66" t="n">
         <v>12.539</v>
       </c>
       <c r="H66" t="n">
-        <v>-2.0044</v>
+        <v>2.5055</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -2643,14 +2773,16 @@
         <v>0.69278</v>
       </c>
       <c r="E67" t="n">
-        <v>1.0512</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
+        <v>0.51357</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8.089</v>
+      </c>
       <c r="G67" t="n">
         <v>12.711</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.9328</v>
+        <v>3.8657</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2676,14 +2808,16 @@
         <v>0.69263</v>
       </c>
       <c r="E68" t="n">
-        <v>1.0512</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
+        <v>0.51334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8.0909</v>
+      </c>
       <c r="G68" t="n">
         <v>12.681</v>
       </c>
       <c r="H68" t="n">
-        <v>-1.9315</v>
+        <v>3.8631</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2709,14 +2843,16 @@
         <v>0.69263</v>
       </c>
       <c r="E69" t="n">
-        <v>1.0512</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
+        <v>0.51334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.0909</v>
+      </c>
       <c r="G69" t="n">
         <v>12.681</v>
       </c>
       <c r="H69" t="n">
-        <v>-1.9315</v>
+        <v>3.8631</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2742,14 +2878,16 @@
         <v>0.6924400000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>1.0342</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
+        <v>0.35071</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9.345499999999999</v>
+      </c>
       <c r="G70" t="n">
         <v>13.847</v>
       </c>
       <c r="H70" t="n">
-        <v>-2.0263</v>
+        <v>2.0263</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -2775,14 +2913,16 @@
         <v>0.6924400000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>1.0342</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
+        <v>0.35071</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9.345499999999999</v>
+      </c>
       <c r="G71" t="n">
         <v>13.847</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.0263</v>
+        <v>2.0263</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -2808,14 +2948,16 @@
         <v>0.69225</v>
       </c>
       <c r="E72" t="n">
-        <v>1.044</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
+        <v>0.46843</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8.456</v>
+      </c>
       <c r="G72" t="n">
         <v>12.696</v>
       </c>
       <c r="H72" t="n">
-        <v>-1.9682</v>
+        <v>3.0929</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -2841,14 +2983,16 @@
         <v>0.69225</v>
       </c>
       <c r="E73" t="n">
-        <v>1.044</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
+        <v>0.46843</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8.456</v>
+      </c>
       <c r="G73" t="n">
         <v>12.696</v>
       </c>
       <c r="H73" t="n">
-        <v>-1.9682</v>
+        <v>3.0929</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -2874,14 +3018,16 @@
         <v>0.69137</v>
       </c>
       <c r="E74" t="n">
-        <v>1.0441</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
+        <v>0.4669</v>
+      </c>
+      <c r="F74" t="n">
+        <v>8.4681</v>
+      </c>
       <c r="G74" t="n">
         <v>13.098</v>
       </c>
       <c r="H74" t="n">
-        <v>-1.9601</v>
+        <v>3.0801</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -2907,14 +3053,16 @@
         <v>0.69137</v>
       </c>
       <c r="E75" t="n">
-        <v>1.0441</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
+        <v>0.4669</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8.4681</v>
+      </c>
       <c r="G75" t="n">
         <v>13.098</v>
       </c>
       <c r="H75" t="n">
-        <v>-1.9601</v>
+        <v>3.0801</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -2940,14 +3088,16 @@
         <v>0.69128</v>
       </c>
       <c r="E76" t="n">
-        <v>1.0515</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
+        <v>0.51119</v>
+      </c>
+      <c r="F76" t="n">
+        <v>8.108700000000001</v>
+      </c>
       <c r="G76" t="n">
         <v>13.13</v>
       </c>
       <c r="H76" t="n">
-        <v>-1.9193</v>
+        <v>3.8385</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -2973,14 +3123,16 @@
         <v>0.69128</v>
       </c>
       <c r="E77" t="n">
-        <v>1.0515</v>
-      </c>
-      <c r="F77" t="inlineStr"/>
+        <v>0.51119</v>
+      </c>
+      <c r="F77" t="n">
+        <v>8.108700000000001</v>
+      </c>
       <c r="G77" t="n">
         <v>13.13</v>
       </c>
       <c r="H77" t="n">
-        <v>-1.9193</v>
+        <v>3.8385</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3006,14 +3158,16 @@
         <v>0.69125</v>
       </c>
       <c r="E78" t="n">
-        <v>1.0515</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
+        <v>0.51114</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8.1091</v>
+      </c>
       <c r="G78" t="n">
         <v>13.173</v>
       </c>
       <c r="H78" t="n">
-        <v>-1.919</v>
+        <v>3.838</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3039,14 +3193,16 @@
         <v>0.69125</v>
       </c>
       <c r="E79" t="n">
-        <v>1.0515</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
+        <v>0.51114</v>
+      </c>
+      <c r="F79" t="n">
+        <v>8.1091</v>
+      </c>
       <c r="G79" t="n">
         <v>13.173</v>
       </c>
       <c r="H79" t="n">
-        <v>-1.919</v>
+        <v>3.838</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3072,14 +3228,16 @@
         <v>0.6911</v>
       </c>
       <c r="E80" t="n">
-        <v>1.0618</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
+        <v>0.54854</v>
+      </c>
+      <c r="F80" t="n">
+        <v>7.7928</v>
+      </c>
       <c r="G80" t="n">
         <v>13.305</v>
       </c>
       <c r="H80" t="n">
-        <v>-1.8644</v>
+        <v>4.8475</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -3105,14 +3263,16 @@
         <v>0.6911</v>
       </c>
       <c r="E81" t="n">
-        <v>1.0618</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
+        <v>0.54854</v>
+      </c>
+      <c r="F81" t="n">
+        <v>7.7928</v>
+      </c>
       <c r="G81" t="n">
         <v>13.305</v>
       </c>
       <c r="H81" t="n">
-        <v>-1.8644</v>
+        <v>4.8475</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -3138,14 +3298,16 @@
         <v>0.69028</v>
       </c>
       <c r="E82" t="n">
-        <v>1.0516</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
+        <v>0.50961</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8.1219</v>
+      </c>
       <c r="G82" t="n">
         <v>13.379</v>
       </c>
       <c r="H82" t="n">
-        <v>-1.9103</v>
+        <v>3.8206</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -3171,14 +3333,16 @@
         <v>0.69028</v>
       </c>
       <c r="E83" t="n">
-        <v>1.0516</v>
-      </c>
-      <c r="F83" t="inlineStr"/>
+        <v>0.50961</v>
+      </c>
+      <c r="F83" t="n">
+        <v>8.1219</v>
+      </c>
       <c r="G83" t="n">
         <v>13.379</v>
       </c>
       <c r="H83" t="n">
-        <v>-1.9103</v>
+        <v>3.8206</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -3204,14 +3368,16 @@
         <v>0.69012</v>
       </c>
       <c r="E84" t="n">
-        <v>1.0516</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
+        <v>0.50935</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8.124000000000001</v>
+      </c>
       <c r="G84" t="n">
         <v>14.407</v>
       </c>
       <c r="H84" t="n">
-        <v>-1.9089</v>
+        <v>3.8177</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -3237,14 +3403,16 @@
         <v>0.69012</v>
       </c>
       <c r="E85" t="n">
-        <v>1.0516</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
+        <v>0.50935</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8.124000000000001</v>
+      </c>
       <c r="G85" t="n">
         <v>14.407</v>
       </c>
       <c r="H85" t="n">
-        <v>-1.9089</v>
+        <v>3.8177</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -3270,14 +3438,16 @@
         <v>0.68984</v>
       </c>
       <c r="E86" t="n">
-        <v>1.0517</v>
-      </c>
-      <c r="F86" t="inlineStr"/>
+        <v>0.50891</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8.127599999999999</v>
+      </c>
       <c r="G86" t="n">
         <v>12.785</v>
       </c>
       <c r="H86" t="n">
-        <v>-1.9064</v>
+        <v>3.8128</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -3303,14 +3473,16 @@
         <v>0.68984</v>
       </c>
       <c r="E87" t="n">
-        <v>1.0517</v>
-      </c>
-      <c r="F87" t="inlineStr"/>
+        <v>0.50891</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8.127599999999999</v>
+      </c>
       <c r="G87" t="n">
         <v>12.785</v>
       </c>
       <c r="H87" t="n">
-        <v>-1.9064</v>
+        <v>3.8128</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -3336,14 +3508,16 @@
         <v>0.6898</v>
       </c>
       <c r="E88" t="n">
-        <v>1.062</v>
-      </c>
-      <c r="F88" t="inlineStr"/>
+        <v>0.54664</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7.8092</v>
+      </c>
       <c r="G88" t="n">
         <v>12.69</v>
       </c>
       <c r="H88" t="n">
-        <v>-1.8531</v>
+        <v>4.8182</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -3369,14 +3543,16 @@
         <v>0.6898</v>
       </c>
       <c r="E89" t="n">
-        <v>1.062</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
+        <v>0.54664</v>
+      </c>
+      <c r="F89" t="n">
+        <v>7.8092</v>
+      </c>
       <c r="G89" t="n">
         <v>12.69</v>
       </c>
       <c r="H89" t="n">
-        <v>-1.8531</v>
+        <v>4.8182</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -3402,14 +3578,16 @@
         <v>0.68973</v>
       </c>
       <c r="E90" t="n">
-        <v>1.0621</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
+        <v>0.54652</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7.8102</v>
+      </c>
       <c r="G90" t="n">
         <v>12.484</v>
       </c>
       <c r="H90" t="n">
-        <v>-1.8525</v>
+        <v>4.8164</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3435,14 +3613,16 @@
         <v>0.68973</v>
       </c>
       <c r="E91" t="n">
-        <v>1.0621</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
+        <v>0.54652</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7.8102</v>
+      </c>
       <c r="G91" t="n">
         <v>12.484</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.8525</v>
+        <v>4.8164</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -3468,14 +3648,16 @@
         <v>0.6897</v>
       </c>
       <c r="E92" t="n">
-        <v>1.0443</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
+        <v>0.46404</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8.4909</v>
+      </c>
       <c r="G92" t="n">
         <v>13.059</v>
       </c>
       <c r="H92" t="n">
-        <v>-1.9449</v>
+        <v>3.0563</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -3501,14 +3683,16 @@
         <v>0.6897</v>
       </c>
       <c r="E93" t="n">
-        <v>1.0443</v>
-      </c>
-      <c r="F93" t="inlineStr"/>
+        <v>0.46404</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8.4909</v>
+      </c>
       <c r="G93" t="n">
         <v>13.059</v>
       </c>
       <c r="H93" t="n">
-        <v>-1.9449</v>
+        <v>3.0563</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -3534,14 +3718,16 @@
         <v>0.68968</v>
       </c>
       <c r="E94" t="n">
-        <v>1.0443</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
+        <v>0.46399</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8.491199999999999</v>
+      </c>
       <c r="G94" t="n">
         <v>13.329</v>
       </c>
       <c r="H94" t="n">
-        <v>-1.9446</v>
+        <v>3.0559</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -3567,14 +3753,16 @@
         <v>0.68968</v>
       </c>
       <c r="E95" t="n">
-        <v>1.0443</v>
-      </c>
-      <c r="F95" t="inlineStr"/>
+        <v>0.46399</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.491199999999999</v>
+      </c>
       <c r="G95" t="n">
         <v>13.329</v>
       </c>
       <c r="H95" t="n">
-        <v>-1.9446</v>
+        <v>3.0559</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -3600,14 +3788,16 @@
         <v>0.68964</v>
       </c>
       <c r="E96" t="n">
-        <v>1.0517</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
+        <v>0.50859</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8.1303</v>
+      </c>
       <c r="G96" t="n">
         <v>13.497</v>
       </c>
       <c r="H96" t="n">
-        <v>-1.9046</v>
+        <v>3.8092</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -3633,14 +3823,16 @@
         <v>0.68964</v>
       </c>
       <c r="E97" t="n">
-        <v>1.0517</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
+        <v>0.50859</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8.1303</v>
+      </c>
       <c r="G97" t="n">
         <v>13.497</v>
       </c>
       <c r="H97" t="n">
-        <v>-1.9046</v>
+        <v>3.8092</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -3666,14 +3858,16 @@
         <v>0.68929</v>
       </c>
       <c r="E98" t="n">
-        <v>1.0621</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
+        <v>0.54589</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7.8156</v>
+      </c>
       <c r="G98" t="n">
         <v>12.781</v>
       </c>
       <c r="H98" t="n">
-        <v>-1.8487</v>
+        <v>4.8067</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -3699,14 +3893,16 @@
         <v>0.68929</v>
       </c>
       <c r="E99" t="n">
-        <v>1.0621</v>
-      </c>
-      <c r="F99" t="inlineStr"/>
+        <v>0.54589</v>
+      </c>
+      <c r="F99" t="n">
+        <v>7.8156</v>
+      </c>
       <c r="G99" t="n">
         <v>12.781</v>
       </c>
       <c r="H99" t="n">
-        <v>-1.8487</v>
+        <v>4.8067</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -3732,14 +3928,16 @@
         <v>0.68923</v>
       </c>
       <c r="E100" t="n">
-        <v>1.0622</v>
-      </c>
-      <c r="F100" t="inlineStr"/>
+        <v>0.5458</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7.8164</v>
+      </c>
       <c r="G100" t="n">
         <v>12.941</v>
       </c>
       <c r="H100" t="n">
-        <v>-1.8482</v>
+        <v>4.8054</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -3765,14 +3963,16 @@
         <v>0.68923</v>
       </c>
       <c r="E101" t="n">
-        <v>1.0622</v>
-      </c>
-      <c r="F101" t="inlineStr"/>
+        <v>0.5458</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7.8164</v>
+      </c>
       <c r="G101" t="n">
         <v>12.941</v>
       </c>
       <c r="H101" t="n">
-        <v>-1.8482</v>
+        <v>4.8054</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -3798,14 +3998,16 @@
         <v>0.68889</v>
       </c>
       <c r="E102" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="F102" t="inlineStr"/>
+        <v>0.50741</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.140000000000001</v>
+      </c>
       <c r="G102" t="n">
         <v>13.037</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.898</v>
+        <v>3.796</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -3831,14 +4033,16 @@
         <v>0.68889</v>
       </c>
       <c r="E103" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
+        <v>0.50741</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8.140000000000001</v>
+      </c>
       <c r="G103" t="n">
         <v>13.037</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.898</v>
+        <v>3.796</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -3864,14 +4068,16 @@
         <v>0.68787</v>
       </c>
       <c r="E104" t="n">
-        <v>1.0446</v>
-      </c>
-      <c r="F104" t="inlineStr"/>
+        <v>0.46087</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8.5159</v>
+      </c>
       <c r="G104" t="n">
         <v>13.687</v>
       </c>
       <c r="H104" t="n">
-        <v>-1.9283</v>
+        <v>3.0302</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -3897,14 +4103,16 @@
         <v>0.68787</v>
       </c>
       <c r="E105" t="n">
-        <v>1.0446</v>
-      </c>
-      <c r="F105" t="inlineStr"/>
+        <v>0.46087</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8.5159</v>
+      </c>
       <c r="G105" t="n">
         <v>13.687</v>
       </c>
       <c r="H105" t="n">
-        <v>-1.9283</v>
+        <v>3.0302</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -3930,14 +4138,16 @@
         <v>0.68777</v>
       </c>
       <c r="E106" t="n">
-        <v>1.0624</v>
-      </c>
-      <c r="F106" t="inlineStr"/>
+        <v>0.54366</v>
+      </c>
+      <c r="F106" t="n">
+        <v>7.8348</v>
+      </c>
       <c r="G106" t="n">
         <v>13.587</v>
       </c>
       <c r="H106" t="n">
-        <v>-1.8356</v>
+        <v>4.7726</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -3963,14 +4173,16 @@
         <v>0.68777</v>
       </c>
       <c r="E107" t="n">
-        <v>1.0624</v>
-      </c>
-      <c r="F107" t="inlineStr"/>
+        <v>0.54366</v>
+      </c>
+      <c r="F107" t="n">
+        <v>7.8348</v>
+      </c>
       <c r="G107" t="n">
         <v>13.587</v>
       </c>
       <c r="H107" t="n">
-        <v>-1.8356</v>
+        <v>4.7726</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -3996,14 +4208,16 @@
         <v>0.68751</v>
       </c>
       <c r="E108" t="n">
-        <v>1.0625</v>
-      </c>
-      <c r="F108" t="inlineStr"/>
+        <v>0.5432900000000001</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7.838</v>
+      </c>
       <c r="G108" t="n">
         <v>13.495</v>
       </c>
       <c r="H108" t="n">
-        <v>-1.8334</v>
+        <v>4.7669</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -4029,14 +4243,16 @@
         <v>0.68751</v>
       </c>
       <c r="E109" t="n">
-        <v>1.0625</v>
-      </c>
-      <c r="F109" t="inlineStr"/>
+        <v>0.5432900000000001</v>
+      </c>
+      <c r="F109" t="n">
+        <v>7.838</v>
+      </c>
       <c r="G109" t="n">
         <v>13.495</v>
       </c>
       <c r="H109" t="n">
-        <v>-1.8334</v>
+        <v>4.7669</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -4062,14 +4278,16 @@
         <v>0.6868</v>
       </c>
       <c r="E110" t="n">
-        <v>1.0626</v>
-      </c>
-      <c r="F110" t="inlineStr"/>
+        <v>0.5422400000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7.847</v>
+      </c>
       <c r="G110" t="n">
         <v>13.919</v>
       </c>
       <c r="H110" t="n">
-        <v>-1.8273</v>
+        <v>4.7511</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -4095,14 +4313,16 @@
         <v>0.6868</v>
       </c>
       <c r="E111" t="n">
-        <v>1.0626</v>
-      </c>
-      <c r="F111" t="inlineStr"/>
+        <v>0.5422400000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7.847</v>
+      </c>
       <c r="G111" t="n">
         <v>13.919</v>
       </c>
       <c r="H111" t="n">
-        <v>-1.8273</v>
+        <v>4.7511</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -4128,14 +4348,16 @@
         <v>0.68632</v>
       </c>
       <c r="E112" t="n">
-        <v>1.0392</v>
-      </c>
-      <c r="F112" t="inlineStr"/>
+        <v>0.404</v>
+      </c>
+      <c r="F112" t="n">
+        <v>8.953799999999999</v>
+      </c>
       <c r="G112" t="n">
         <v>13.823</v>
       </c>
       <c r="H112" t="n">
-        <v>-1.9448</v>
+        <v>2.431</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -4161,14 +4383,16 @@
         <v>0.68632</v>
       </c>
       <c r="E113" t="n">
-        <v>1.0392</v>
-      </c>
-      <c r="F113" t="inlineStr"/>
+        <v>0.404</v>
+      </c>
+      <c r="F113" t="n">
+        <v>8.953799999999999</v>
+      </c>
       <c r="G113" t="n">
         <v>13.823</v>
       </c>
       <c r="H113" t="n">
-        <v>-1.9448</v>
+        <v>2.431</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -4194,14 +4418,16 @@
         <v>0.68614</v>
       </c>
       <c r="E114" t="n">
-        <v>1.0785</v>
-      </c>
-      <c r="F114" t="inlineStr"/>
+        <v>0.5740499999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>7.5694</v>
+      </c>
       <c r="G114" t="n">
         <v>13.296</v>
       </c>
       <c r="H114" t="n">
-        <v>-1.7489</v>
+        <v>6.1212</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -4227,14 +4453,16 @@
         <v>0.68614</v>
       </c>
       <c r="E115" t="n">
-        <v>1.0785</v>
-      </c>
-      <c r="F115" t="inlineStr"/>
+        <v>0.5740499999999999</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7.5694</v>
+      </c>
       <c r="G115" t="n">
         <v>13.296</v>
       </c>
       <c r="H115" t="n">
-        <v>-1.7489</v>
+        <v>6.1212</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -4260,14 +4488,16 @@
         <v>0.6841699999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>1.0351</v>
-      </c>
-      <c r="F116" t="inlineStr"/>
+        <v>0.33324</v>
+      </c>
+      <c r="F116" t="n">
+        <v>9.4704</v>
+      </c>
       <c r="G116" t="n">
         <v>13.215</v>
       </c>
       <c r="H116" t="n">
-        <v>-1.9496</v>
+        <v>1.9496</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -4293,14 +4523,16 @@
         <v>0.6841699999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>1.0351</v>
-      </c>
-      <c r="F117" t="inlineStr"/>
+        <v>0.33324</v>
+      </c>
+      <c r="F117" t="n">
+        <v>9.4704</v>
+      </c>
       <c r="G117" t="n">
         <v>13.215</v>
       </c>
       <c r="H117" t="n">
-        <v>-1.9496</v>
+        <v>1.9496</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -4326,14 +4558,16 @@
         <v>0.68381</v>
       </c>
       <c r="E118" t="n">
-        <v>1.0351</v>
-      </c>
-      <c r="F118" t="inlineStr"/>
+        <v>0.33248</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9.4758</v>
+      </c>
       <c r="G118" t="n">
         <v>14.492</v>
       </c>
       <c r="H118" t="n">
-        <v>-1.9464</v>
+        <v>1.9464</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -4359,14 +4593,16 @@
         <v>0.68381</v>
       </c>
       <c r="E119" t="n">
-        <v>1.0527</v>
-      </c>
-      <c r="F119" t="inlineStr"/>
+        <v>0.49937</v>
+      </c>
+      <c r="F119" t="n">
+        <v>8.206200000000001</v>
+      </c>
       <c r="G119" t="n">
         <v>14.155</v>
       </c>
       <c r="H119" t="n">
-        <v>-1.8537</v>
+        <v>3.7075</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -4392,14 +4628,16 @@
         <v>0.68381</v>
       </c>
       <c r="E120" t="n">
-        <v>1.0351</v>
-      </c>
-      <c r="F120" t="inlineStr"/>
+        <v>0.33248</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9.4758</v>
+      </c>
       <c r="G120" t="n">
         <v>14.492</v>
       </c>
       <c r="H120" t="n">
-        <v>-1.9464</v>
+        <v>1.9464</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -4425,14 +4663,16 @@
         <v>0.68381</v>
       </c>
       <c r="E121" t="n">
-        <v>1.0527</v>
-      </c>
-      <c r="F121" t="inlineStr"/>
+        <v>0.49937</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8.206200000000001</v>
+      </c>
       <c r="G121" t="n">
         <v>14.155</v>
       </c>
       <c r="H121" t="n">
-        <v>-1.8537</v>
+        <v>3.7075</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -4458,14 +4698,16 @@
         <v>0.68362</v>
       </c>
       <c r="E122" t="n">
-        <v>1.0316</v>
-      </c>
-      <c r="F122" t="inlineStr"/>
+        <v>0.24859</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10.054</v>
+      </c>
       <c r="G122" t="n">
         <v>15.398</v>
       </c>
       <c r="H122" t="n">
-        <v>-1.9643</v>
+        <v>1.5714</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -4491,14 +4733,16 @@
         <v>0.68362</v>
       </c>
       <c r="E123" t="n">
-        <v>1.0316</v>
-      </c>
-      <c r="F123" t="inlineStr"/>
+        <v>0.24859</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10.054</v>
+      </c>
       <c r="G123" t="n">
         <v>15.398</v>
       </c>
       <c r="H123" t="n">
-        <v>-1.9643</v>
+        <v>1.5714</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -4524,14 +4768,16 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>1.0318</v>
-      </c>
-      <c r="F124" t="inlineStr"/>
+        <v>0.24474</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10.079</v>
+      </c>
       <c r="G124" t="n">
         <v>14.484</v>
       </c>
       <c r="H124" t="n">
-        <v>-1.9496</v>
+        <v>1.5597</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -4557,14 +4803,16 @@
         <v>0.6820000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>1.0318</v>
-      </c>
-      <c r="F125" t="inlineStr"/>
+        <v>0.24474</v>
+      </c>
+      <c r="F125" t="n">
+        <v>10.079</v>
+      </c>
       <c r="G125" t="n">
         <v>14.484</v>
       </c>
       <c r="H125" t="n">
-        <v>-1.9496</v>
+        <v>1.5597</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -4590,14 +4838,16 @@
         <v>0.67924</v>
       </c>
       <c r="E126" t="n">
-        <v>1.0401</v>
-      </c>
-      <c r="F126" t="inlineStr"/>
+        <v>0.39056</v>
+      </c>
+      <c r="F126" t="n">
+        <v>9.0542</v>
+      </c>
       <c r="G126" t="n">
         <v>14.198</v>
       </c>
       <c r="H126" t="n">
-        <v>-1.8823</v>
+        <v>2.3529</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -4623,14 +4873,16 @@
         <v>0.67924</v>
       </c>
       <c r="E127" t="n">
-        <v>1.0401</v>
-      </c>
-      <c r="F127" t="inlineStr"/>
+        <v>0.39056</v>
+      </c>
+      <c r="F127" t="n">
+        <v>9.0542</v>
+      </c>
       <c r="G127" t="n">
         <v>14.198</v>
       </c>
       <c r="H127" t="n">
-        <v>-1.8823</v>
+        <v>2.3529</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -4656,14 +4908,16 @@
         <v>0.67901</v>
       </c>
       <c r="E128" t="n">
-        <v>1.0321</v>
-      </c>
-      <c r="F128" t="inlineStr"/>
+        <v>0.23765</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10.127</v>
+      </c>
       <c r="G128" t="n">
         <v>14.338</v>
       </c>
       <c r="H128" t="n">
-        <v>-1.9231</v>
+        <v>1.5385</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -4689,14 +4943,16 @@
         <v>0.67901</v>
       </c>
       <c r="E129" t="n">
-        <v>1.0321</v>
-      </c>
-      <c r="F129" t="inlineStr"/>
+        <v>0.23765</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10.127</v>
+      </c>
       <c r="G129" t="n">
         <v>14.338</v>
       </c>
       <c r="H129" t="n">
-        <v>-1.9231</v>
+        <v>1.5385</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -4722,14 +4978,16 @@
         <v>0.67837</v>
       </c>
       <c r="E130" t="n">
-        <v>1.0804</v>
-      </c>
-      <c r="F130" t="inlineStr"/>
+        <v>0.5635</v>
+      </c>
+      <c r="F130" t="n">
+        <v>7.6626</v>
+      </c>
       <c r="G130" t="n">
         <v>13.001</v>
       </c>
       <c r="H130" t="n">
-        <v>-1.6873</v>
+        <v>5.9057</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -4755,14 +5013,16 @@
         <v>0.67837</v>
       </c>
       <c r="E131" t="n">
-        <v>1.0804</v>
-      </c>
-      <c r="F131" t="inlineStr"/>
+        <v>0.5635</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7.6626</v>
+      </c>
       <c r="G131" t="n">
         <v>13.001</v>
       </c>
       <c r="H131" t="n">
-        <v>-1.6873</v>
+        <v>5.9057</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -4788,14 +5048,16 @@
         <v>0.67536</v>
       </c>
       <c r="E132" t="n">
-        <v>1.0464</v>
-      </c>
-      <c r="F132" t="inlineStr"/>
+        <v>0.43925</v>
+      </c>
+      <c r="F132" t="n">
+        <v>8.685</v>
+      </c>
       <c r="G132" t="n">
         <v>15.003</v>
       </c>
       <c r="H132" t="n">
-        <v>-1.8203</v>
+        <v>2.8604</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -4821,14 +5083,16 @@
         <v>0.67536</v>
       </c>
       <c r="E133" t="n">
-        <v>1.0464</v>
-      </c>
-      <c r="F133" t="inlineStr"/>
+        <v>0.43925</v>
+      </c>
+      <c r="F133" t="n">
+        <v>8.685</v>
+      </c>
       <c r="G133" t="n">
         <v>15.003</v>
       </c>
       <c r="H133" t="n">
-        <v>-1.8203</v>
+        <v>2.8604</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -4854,14 +5118,16 @@
         <v>0.67482</v>
       </c>
       <c r="E134" t="n">
-        <v>1.0813</v>
-      </c>
-      <c r="F134" t="inlineStr"/>
+        <v>0.55868</v>
+      </c>
+      <c r="F134" t="n">
+        <v>7.7048</v>
+      </c>
       <c r="G134" t="n">
         <v>13.524</v>
       </c>
       <c r="H134" t="n">
-        <v>-1.6602</v>
+        <v>5.8105</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -4887,14 +5153,16 @@
         <v>0.67482</v>
       </c>
       <c r="E135" t="n">
-        <v>1.0813</v>
-      </c>
-      <c r="F135" t="inlineStr"/>
+        <v>0.55868</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7.7048</v>
+      </c>
       <c r="G135" t="n">
         <v>13.524</v>
       </c>
       <c r="H135" t="n">
-        <v>-1.6602</v>
+        <v>5.8105</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -4920,14 +5188,16 @@
         <v>0.6731</v>
       </c>
       <c r="E136" t="n">
-        <v>1.0654</v>
-      </c>
-      <c r="F136" t="inlineStr"/>
+        <v>0.52222</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8.0167</v>
+      </c>
       <c r="G136" t="n">
         <v>14.425</v>
       </c>
       <c r="H136" t="n">
-        <v>-1.7158</v>
+        <v>4.4612</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -4953,14 +5223,16 @@
         <v>0.6731</v>
       </c>
       <c r="E137" t="n">
-        <v>1.0654</v>
-      </c>
-      <c r="F137" t="inlineStr"/>
+        <v>0.52222</v>
+      </c>
+      <c r="F137" t="n">
+        <v>8.0167</v>
+      </c>
       <c r="G137" t="n">
         <v>14.425</v>
       </c>
       <c r="H137" t="n">
-        <v>-1.7158</v>
+        <v>4.4612</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -4986,14 +5258,16 @@
         <v>0.67064</v>
       </c>
       <c r="E138" t="n">
-        <v>1.0471</v>
-      </c>
-      <c r="F138" t="inlineStr"/>
+        <v>0.43111</v>
+      </c>
+      <c r="F138" t="n">
+        <v>8.7478</v>
+      </c>
       <c r="G138" t="n">
         <v>15.078</v>
       </c>
       <c r="H138" t="n">
-        <v>-1.7817</v>
+        <v>2.7998</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -5019,14 +5293,16 @@
         <v>0.67064</v>
       </c>
       <c r="E139" t="n">
-        <v>1.0471</v>
-      </c>
-      <c r="F139" t="inlineStr"/>
+        <v>0.43111</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8.7478</v>
+      </c>
       <c r="G139" t="n">
         <v>15.078</v>
       </c>
       <c r="H139" t="n">
-        <v>-1.7817</v>
+        <v>2.7998</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -5052,14 +5328,16 @@
         <v>0.66808</v>
       </c>
       <c r="E140" t="n">
-        <v>1.0369</v>
-      </c>
-      <c r="F140" t="inlineStr"/>
+        <v>0.29928</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9.708600000000001</v>
+      </c>
       <c r="G140" t="n">
         <v>15.089</v>
       </c>
       <c r="H140" t="n">
-        <v>-1.8115</v>
+        <v>1.8115</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -5085,14 +5363,16 @@
         <v>0.66808</v>
       </c>
       <c r="E141" t="n">
-        <v>1.0369</v>
-      </c>
-      <c r="F141" t="inlineStr"/>
+        <v>0.29928</v>
+      </c>
+      <c r="F141" t="n">
+        <v>9.708600000000001</v>
+      </c>
       <c r="G141" t="n">
         <v>15.089</v>
       </c>
       <c r="H141" t="n">
-        <v>-1.8115</v>
+        <v>1.8115</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -5118,14 +5398,16 @@
         <v>0.66791</v>
       </c>
       <c r="E142" t="n">
-        <v>1.0474</v>
-      </c>
-      <c r="F142" t="inlineStr"/>
+        <v>0.42638</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8.784000000000001</v>
+      </c>
       <c r="G142" t="n">
         <v>13.086</v>
       </c>
       <c r="H142" t="n">
-        <v>-1.7598</v>
+        <v>2.7654</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -5151,14 +5433,16 @@
         <v>0.66791</v>
       </c>
       <c r="E143" t="n">
-        <v>1.0474</v>
-      </c>
-      <c r="F143" t="inlineStr"/>
+        <v>0.42638</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8.784000000000001</v>
+      </c>
       <c r="G143" t="n">
         <v>13.086</v>
       </c>
       <c r="H143" t="n">
-        <v>-1.7598</v>
+        <v>2.7654</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -5184,14 +5468,16 @@
         <v>0.66218</v>
       </c>
       <c r="E144" t="n">
-        <v>1.0563</v>
-      </c>
-      <c r="F144" t="inlineStr"/>
+        <v>0.46513</v>
+      </c>
+      <c r="F144" t="n">
+        <v>8.482200000000001</v>
+      </c>
       <c r="G144" t="n">
         <v>14.949</v>
       </c>
       <c r="H144" t="n">
-        <v>-1.6802</v>
+        <v>3.3603</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -5217,14 +5503,16 @@
         <v>0.66218</v>
       </c>
       <c r="E145" t="n">
-        <v>1.0563</v>
-      </c>
-      <c r="F145" t="inlineStr"/>
+        <v>0.46513</v>
+      </c>
+      <c r="F145" t="n">
+        <v>8.482200000000001</v>
+      </c>
       <c r="G145" t="n">
         <v>14.949</v>
       </c>
       <c r="H145" t="n">
-        <v>-1.6802</v>
+        <v>3.3603</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -5250,14 +5538,16 @@
         <v>0.66111</v>
       </c>
       <c r="E146" t="n">
-        <v>1.0847</v>
-      </c>
-      <c r="F146" t="inlineStr"/>
+        <v>0.54008</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7.8655</v>
+      </c>
       <c r="G146" t="n">
         <v>14.315</v>
       </c>
       <c r="H146" t="n">
-        <v>-1.5607</v>
+        <v>5.4623</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -5283,14 +5573,16 @@
         <v>0.66111</v>
       </c>
       <c r="E147" t="n">
-        <v>1.0847</v>
-      </c>
-      <c r="F147" t="inlineStr"/>
+        <v>0.54008</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7.8655</v>
+      </c>
       <c r="G147" t="n">
         <v>14.315</v>
       </c>
       <c r="H147" t="n">
-        <v>-1.5607</v>
+        <v>5.4623</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -5316,14 +5608,16 @@
         <v>0.6607499999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>1.0848</v>
-      </c>
-      <c r="F148" t="inlineStr"/>
+        <v>0.53959</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7.8697</v>
+      </c>
       <c r="G148" t="n">
         <v>14.51</v>
       </c>
       <c r="H148" t="n">
-        <v>-1.5581</v>
+        <v>5.4535</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -5349,14 +5643,16 @@
         <v>0.6607499999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>1.0848</v>
-      </c>
-      <c r="F149" t="inlineStr"/>
+        <v>0.53959</v>
+      </c>
+      <c r="F149" t="n">
+        <v>7.8697</v>
+      </c>
       <c r="G149" t="n">
         <v>14.51</v>
       </c>
       <c r="H149" t="n">
-        <v>-1.5581</v>
+        <v>5.4535</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -5382,14 +5678,16 @@
         <v>0.66048</v>
       </c>
       <c r="E150" t="n">
-        <v>1.0679</v>
-      </c>
-      <c r="F150" t="inlineStr"/>
+        <v>0.5037700000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>8.17</v>
+      </c>
       <c r="G150" t="n">
         <v>13.576</v>
       </c>
       <c r="H150" t="n">
-        <v>-1.6211</v>
+        <v>4.2148</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -5415,14 +5713,16 @@
         <v>0.66048</v>
       </c>
       <c r="E151" t="n">
-        <v>1.0679</v>
-      </c>
-      <c r="F151" t="inlineStr"/>
+        <v>0.5037700000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8.17</v>
+      </c>
       <c r="G151" t="n">
         <v>13.576</v>
       </c>
       <c r="H151" t="n">
-        <v>-1.6211</v>
+        <v>4.2148</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -5448,14 +5748,16 @@
         <v>0.66011</v>
       </c>
       <c r="E152" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="F152" t="inlineStr"/>
+        <v>0.53872</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7.8771</v>
+      </c>
       <c r="G152" t="n">
         <v>14.137</v>
       </c>
       <c r="H152" t="n">
-        <v>-1.5537</v>
+        <v>5.438</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -5481,14 +5783,16 @@
         <v>0.66011</v>
       </c>
       <c r="E153" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="F153" t="inlineStr"/>
+        <v>0.53872</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7.8771</v>
+      </c>
       <c r="G153" t="n">
         <v>14.137</v>
       </c>
       <c r="H153" t="n">
-        <v>-1.5537</v>
+        <v>5.438</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -5514,14 +5818,16 @@
         <v>0.65991</v>
       </c>
       <c r="E154" t="n">
-        <v>1.0378</v>
-      </c>
-      <c r="F154" t="inlineStr"/>
+        <v>0.28204</v>
+      </c>
+      <c r="F154" t="n">
+        <v>9.827299999999999</v>
+      </c>
       <c r="G154" t="n">
         <v>15.505</v>
       </c>
       <c r="H154" t="n">
-        <v>-1.7464</v>
+        <v>1.7464</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -5547,14 +5853,16 @@
         <v>0.65991</v>
       </c>
       <c r="E155" t="n">
-        <v>1.0378</v>
-      </c>
-      <c r="F155" t="inlineStr"/>
+        <v>0.28204</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9.827299999999999</v>
+      </c>
       <c r="G155" t="n">
         <v>15.505</v>
       </c>
       <c r="H155" t="n">
-        <v>-1.7464</v>
+        <v>1.7464</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -5580,14 +5888,16 @@
         <v>0.65982</v>
       </c>
       <c r="E156" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="F156" t="inlineStr"/>
+        <v>0.53833</v>
+      </c>
+      <c r="F156" t="n">
+        <v>7.8804</v>
+      </c>
       <c r="G156" t="n">
         <v>14.332</v>
       </c>
       <c r="H156" t="n">
-        <v>-1.5517</v>
+        <v>5.431</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -5613,14 +5923,16 @@
         <v>0.65982</v>
       </c>
       <c r="E157" t="n">
-        <v>1.085</v>
-      </c>
-      <c r="F157" t="inlineStr"/>
+        <v>0.53833</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7.8804</v>
+      </c>
       <c r="G157" t="n">
         <v>14.332</v>
       </c>
       <c r="H157" t="n">
-        <v>-1.5517</v>
+        <v>5.431</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -5646,14 +5958,16 @@
         <v>0.65981</v>
       </c>
       <c r="E158" t="n">
-        <v>1.068</v>
-      </c>
-      <c r="F158" t="inlineStr"/>
+        <v>0.5028</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8.178000000000001</v>
+      </c>
       <c r="G158" t="n">
         <v>14.233</v>
       </c>
       <c r="H158" t="n">
-        <v>-1.6163</v>
+        <v>4.2024</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -5679,14 +5993,16 @@
         <v>0.65981</v>
       </c>
       <c r="E159" t="n">
-        <v>1.068</v>
-      </c>
-      <c r="F159" t="inlineStr"/>
+        <v>0.5028</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.178000000000001</v>
+      </c>
       <c r="G159" t="n">
         <v>14.233</v>
       </c>
       <c r="H159" t="n">
-        <v>-1.6163</v>
+        <v>4.2024</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -5712,14 +6028,16 @@
         <v>0.6597499999999999</v>
       </c>
       <c r="E160" t="n">
-        <v>1.0486</v>
-      </c>
-      <c r="F160" t="inlineStr"/>
+        <v>0.41229</v>
+      </c>
+      <c r="F160" t="n">
+        <v>8.891299999999999</v>
+      </c>
       <c r="G160" t="n">
         <v>14.309</v>
       </c>
       <c r="H160" t="n">
-        <v>-1.6966</v>
+        <v>2.6661</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -5745,14 +6063,16 @@
         <v>0.6597499999999999</v>
       </c>
       <c r="E161" t="n">
-        <v>1.0486</v>
-      </c>
-      <c r="F161" t="inlineStr"/>
+        <v>0.41229</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8.891299999999999</v>
+      </c>
       <c r="G161" t="n">
         <v>14.309</v>
       </c>
       <c r="H161" t="n">
-        <v>-1.6966</v>
+        <v>2.6661</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -5778,14 +6098,16 @@
         <v>0.6595299999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>1.0851</v>
-      </c>
-      <c r="F162" t="inlineStr"/>
+        <v>0.53793</v>
+      </c>
+      <c r="F162" t="n">
+        <v>7.8838</v>
+      </c>
       <c r="G162" t="n">
         <v>14.532</v>
       </c>
       <c r="H162" t="n">
-        <v>-1.5497</v>
+        <v>5.4239</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -5811,14 +6133,16 @@
         <v>0.6595299999999999</v>
       </c>
       <c r="E163" t="n">
-        <v>1.0851</v>
-      </c>
-      <c r="F163" t="inlineStr"/>
+        <v>0.53793</v>
+      </c>
+      <c r="F163" t="n">
+        <v>7.8838</v>
+      </c>
       <c r="G163" t="n">
         <v>14.532</v>
       </c>
       <c r="H163" t="n">
-        <v>-1.5497</v>
+        <v>5.4239</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -5844,14 +6168,16 @@
         <v>0.65794</v>
       </c>
       <c r="E164" t="n">
-        <v>1.057</v>
-      </c>
-      <c r="F164" t="inlineStr"/>
+        <v>0.45841</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8.535299999999999</v>
+      </c>
       <c r="G164" t="n">
         <v>12.715</v>
       </c>
       <c r="H164" t="n">
-        <v>-1.6487</v>
+        <v>3.2974</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -5877,14 +6203,16 @@
         <v>0.65794</v>
       </c>
       <c r="E165" t="n">
-        <v>1.057</v>
-      </c>
-      <c r="F165" t="inlineStr"/>
+        <v>0.45841</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8.535299999999999</v>
+      </c>
       <c r="G165" t="n">
         <v>12.715</v>
       </c>
       <c r="H165" t="n">
-        <v>-1.6487</v>
+        <v>3.2974</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -5910,14 +6238,16 @@
         <v>0.65526</v>
       </c>
       <c r="E166" t="n">
-        <v>1.0575</v>
-      </c>
-      <c r="F166" t="inlineStr"/>
+        <v>0.45415</v>
+      </c>
+      <c r="F166" t="n">
+        <v>8.5688</v>
+      </c>
       <c r="G166" t="n">
         <v>15.891</v>
       </c>
       <c r="H166" t="n">
-        <v>-1.6292</v>
+        <v>3.2583</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -5943,14 +6273,16 @@
         <v>0.65526</v>
       </c>
       <c r="E167" t="n">
-        <v>1.0575</v>
-      </c>
-      <c r="F167" t="inlineStr"/>
+        <v>0.45415</v>
+      </c>
+      <c r="F167" t="n">
+        <v>8.5688</v>
+      </c>
       <c r="G167" t="n">
         <v>15.891</v>
       </c>
       <c r="H167" t="n">
-        <v>-1.6292</v>
+        <v>3.2583</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -5976,14 +6308,16 @@
         <v>0.65454</v>
       </c>
       <c r="E168" t="n">
-        <v>1.0691</v>
-      </c>
-      <c r="F168" t="inlineStr"/>
+        <v>0.49509</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8.241199999999999</v>
+      </c>
       <c r="G168" t="n">
         <v>16.331</v>
       </c>
       <c r="H168" t="n">
-        <v>-1.5789</v>
+        <v>4.1051</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -6009,14 +6343,16 @@
         <v>0.65454</v>
       </c>
       <c r="E169" t="n">
-        <v>1.0691</v>
-      </c>
-      <c r="F169" t="inlineStr"/>
+        <v>0.49509</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8.241199999999999</v>
+      </c>
       <c r="G169" t="n">
         <v>16.331</v>
       </c>
       <c r="H169" t="n">
-        <v>-1.5789</v>
+        <v>4.1051</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -6042,14 +6378,16 @@
         <v>0.6523</v>
       </c>
       <c r="E170" t="n">
-        <v>1.0695</v>
-      </c>
-      <c r="F170" t="inlineStr"/>
+        <v>0.49182</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8.267799999999999</v>
+      </c>
       <c r="G170" t="n">
         <v>13.165</v>
       </c>
       <c r="H170" t="n">
-        <v>-1.5634</v>
+        <v>4.0647</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -6075,14 +6413,16 @@
         <v>0.6523</v>
       </c>
       <c r="E171" t="n">
-        <v>1.0695</v>
-      </c>
-      <c r="F171" t="inlineStr"/>
+        <v>0.49182</v>
+      </c>
+      <c r="F171" t="n">
+        <v>8.267799999999999</v>
+      </c>
       <c r="G171" t="n">
         <v>13.165</v>
       </c>
       <c r="H171" t="n">
-        <v>-1.5634</v>
+        <v>4.0647</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -6108,14 +6448,16 @@
         <v>0.65205</v>
       </c>
       <c r="E172" t="n">
-        <v>1.0696</v>
-      </c>
-      <c r="F172" t="inlineStr"/>
+        <v>0.49145</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8.270799999999999</v>
+      </c>
       <c r="G172" t="n">
         <v>15.632</v>
       </c>
       <c r="H172" t="n">
-        <v>-1.5616</v>
+        <v>4.0602</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -6141,14 +6483,16 @@
         <v>0.65205</v>
       </c>
       <c r="E173" t="n">
-        <v>1.0696</v>
-      </c>
-      <c r="F173" t="inlineStr"/>
+        <v>0.49145</v>
+      </c>
+      <c r="F173" t="n">
+        <v>8.270799999999999</v>
+      </c>
       <c r="G173" t="n">
         <v>15.632</v>
       </c>
       <c r="H173" t="n">
-        <v>-1.5616</v>
+        <v>4.0602</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
@@ -6174,14 +6518,16 @@
         <v>0.65138</v>
       </c>
       <c r="E174" t="n">
-        <v>1.0581</v>
-      </c>
-      <c r="F174" t="inlineStr"/>
+        <v>0.44802</v>
+      </c>
+      <c r="F174" t="n">
+        <v>8.6168</v>
+      </c>
       <c r="G174" t="n">
         <v>15.456</v>
       </c>
       <c r="H174" t="n">
-        <v>-1.6015</v>
+        <v>3.2031</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -6207,14 +6553,16 @@
         <v>0.65138</v>
       </c>
       <c r="E175" t="n">
-        <v>1.0581</v>
-      </c>
-      <c r="F175" t="inlineStr"/>
+        <v>0.44802</v>
+      </c>
+      <c r="F175" t="n">
+        <v>8.6168</v>
+      </c>
       <c r="G175" t="n">
         <v>15.456</v>
       </c>
       <c r="H175" t="n">
-        <v>-1.6015</v>
+        <v>3.2031</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -6240,14 +6588,16 @@
         <v>0.64653</v>
       </c>
       <c r="E176" t="n">
-        <v>1.0589</v>
-      </c>
-      <c r="F176" t="inlineStr"/>
+        <v>0.44035</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8.676500000000001</v>
+      </c>
       <c r="G176" t="n">
         <v>15.358</v>
       </c>
       <c r="H176" t="n">
-        <v>-1.5678</v>
+        <v>3.1356</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
@@ -6273,14 +6623,16 @@
         <v>0.64653</v>
       </c>
       <c r="E177" t="n">
-        <v>1.0589</v>
-      </c>
-      <c r="F177" t="inlineStr"/>
+        <v>0.44035</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8.676500000000001</v>
+      </c>
       <c r="G177" t="n">
         <v>15.358</v>
       </c>
       <c r="H177" t="n">
-        <v>-1.5678</v>
+        <v>3.1356</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -6306,14 +6658,16 @@
         <v>0.64614</v>
       </c>
       <c r="E178" t="n">
-        <v>1.0885</v>
-      </c>
-      <c r="F178" t="inlineStr"/>
+        <v>0.51976</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8.0374</v>
+      </c>
       <c r="G178" t="n">
         <v>15.537</v>
       </c>
       <c r="H178" t="n">
-        <v>-1.4608</v>
+        <v>5.1126</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -6339,14 +6693,16 @@
         <v>0.64614</v>
       </c>
       <c r="E179" t="n">
-        <v>1.0885</v>
-      </c>
-      <c r="F179" t="inlineStr"/>
+        <v>0.51976</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8.0374</v>
+      </c>
       <c r="G179" t="n">
         <v>15.537</v>
       </c>
       <c r="H179" t="n">
-        <v>-1.4608</v>
+        <v>5.1126</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -6372,14 +6728,16 @@
         <v>0.64517</v>
       </c>
       <c r="E180" t="n">
-        <v>1.0887</v>
-      </c>
-      <c r="F180" t="inlineStr"/>
+        <v>0.51845</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8.048299999999999</v>
+      </c>
       <c r="G180" t="n">
         <v>15.18</v>
       </c>
       <c r="H180" t="n">
-        <v>-1.4546</v>
+        <v>5.0912</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -6405,14 +6763,16 @@
         <v>0.64517</v>
       </c>
       <c r="E181" t="n">
-        <v>1.0887</v>
-      </c>
-      <c r="F181" t="inlineStr"/>
+        <v>0.51845</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8.048299999999999</v>
+      </c>
       <c r="G181" t="n">
         <v>15.18</v>
       </c>
       <c r="H181" t="n">
-        <v>-1.4546</v>
+        <v>5.0912</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
@@ -6438,14 +6798,16 @@
         <v>0.64389</v>
       </c>
       <c r="E182" t="n">
-        <v>1.0509</v>
-      </c>
-      <c r="F182" t="inlineStr"/>
+        <v>0.3849</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9.0961</v>
+      </c>
       <c r="G182" t="n">
         <v>16.247</v>
       </c>
       <c r="H182" t="n">
-        <v>-1.5821</v>
+        <v>2.4862</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -6471,14 +6833,16 @@
         <v>0.64389</v>
       </c>
       <c r="E183" t="n">
-        <v>1.0509</v>
-      </c>
-      <c r="F183" t="inlineStr"/>
+        <v>0.3849</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9.0961</v>
+      </c>
       <c r="G183" t="n">
         <v>16.247</v>
       </c>
       <c r="H183" t="n">
-        <v>-1.5821</v>
+        <v>2.4862</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
@@ -6504,14 +6868,16 @@
         <v>0.64323</v>
       </c>
       <c r="E184" t="n">
-        <v>1.1189</v>
-      </c>
-      <c r="F184" t="inlineStr"/>
+        <v>0.5481</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7.7966</v>
+      </c>
       <c r="G184" t="n">
         <v>14.658</v>
       </c>
       <c r="H184" t="n">
-        <v>-1.3522</v>
+        <v>6.7611</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
@@ -6537,14 +6903,16 @@
         <v>0.64323</v>
       </c>
       <c r="E185" t="n">
-        <v>1.1189</v>
-      </c>
-      <c r="F185" t="inlineStr"/>
+        <v>0.5481</v>
+      </c>
+      <c r="F185" t="n">
+        <v>7.7966</v>
+      </c>
       <c r="G185" t="n">
         <v>14.658</v>
       </c>
       <c r="H185" t="n">
-        <v>-1.3522</v>
+        <v>6.7611</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
@@ -6570,14 +6938,16 @@
         <v>0.64293</v>
       </c>
       <c r="E186" t="n">
-        <v>1.0893</v>
-      </c>
-      <c r="F186" t="inlineStr"/>
+        <v>0.51541</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8.073700000000001</v>
+      </c>
       <c r="G186" t="n">
         <v>15.764</v>
       </c>
       <c r="H186" t="n">
-        <v>-1.4405</v>
+        <v>5.0417</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -6603,14 +6973,16 @@
         <v>0.64293</v>
       </c>
       <c r="E187" t="n">
-        <v>1.0893</v>
-      </c>
-      <c r="F187" t="inlineStr"/>
+        <v>0.51541</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8.073700000000001</v>
+      </c>
       <c r="G187" t="n">
         <v>15.764</v>
       </c>
       <c r="H187" t="n">
-        <v>-1.4405</v>
+        <v>5.0417</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
@@ -6636,14 +7008,16 @@
         <v>0.64235</v>
       </c>
       <c r="E188" t="n">
-        <v>1.1192</v>
-      </c>
-      <c r="F188" t="inlineStr"/>
+        <v>0.54698</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7.8062</v>
+      </c>
       <c r="G188" t="n">
         <v>14.505</v>
       </c>
       <c r="H188" t="n">
-        <v>-1.347</v>
+        <v>6.7352</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -6669,14 +7043,16 @@
         <v>0.64235</v>
       </c>
       <c r="E189" t="n">
-        <v>1.1192</v>
-      </c>
-      <c r="F189" t="inlineStr"/>
+        <v>0.54698</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7.8062</v>
+      </c>
       <c r="G189" t="n">
         <v>14.505</v>
       </c>
       <c r="H189" t="n">
-        <v>-1.347</v>
+        <v>6.7352</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -6702,14 +7078,16 @@
         <v>0.64173</v>
       </c>
       <c r="E190" t="n">
-        <v>1.1194</v>
-      </c>
-      <c r="F190" t="inlineStr"/>
+        <v>0.54619</v>
+      </c>
+      <c r="F190" t="n">
+        <v>7.8131</v>
+      </c>
       <c r="G190" t="n">
         <v>14.519</v>
       </c>
       <c r="H190" t="n">
-        <v>-1.3434</v>
+        <v>6.7168</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -6735,14 +7113,16 @@
         <v>0.64173</v>
       </c>
       <c r="E191" t="n">
-        <v>1.1194</v>
-      </c>
-      <c r="F191" t="inlineStr"/>
+        <v>0.54619</v>
+      </c>
+      <c r="F191" t="n">
+        <v>7.8131</v>
+      </c>
       <c r="G191" t="n">
         <v>14.519</v>
       </c>
       <c r="H191" t="n">
-        <v>-1.3434</v>
+        <v>6.7168</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -6768,14 +7148,16 @@
         <v>0.64131</v>
       </c>
       <c r="E192" t="n">
-        <v>1.1196</v>
-      </c>
-      <c r="F192" t="inlineStr"/>
+        <v>0.54566</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7.8176</v>
+      </c>
       <c r="G192" t="n">
         <v>14.327</v>
       </c>
       <c r="H192" t="n">
-        <v>-1.341</v>
+        <v>6.7048</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -6801,14 +7183,16 @@
         <v>0.64131</v>
       </c>
       <c r="E193" t="n">
-        <v>1.1196</v>
-      </c>
-      <c r="F193" t="inlineStr"/>
+        <v>0.54566</v>
+      </c>
+      <c r="F193" t="n">
+        <v>7.8176</v>
+      </c>
       <c r="G193" t="n">
         <v>14.327</v>
       </c>
       <c r="H193" t="n">
-        <v>-1.341</v>
+        <v>6.7048</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -6834,14 +7218,16 @@
         <v>0.63856</v>
       </c>
       <c r="E194" t="n">
-        <v>1.0402</v>
-      </c>
-      <c r="F194" t="inlineStr"/>
+        <v>0.23697</v>
+      </c>
+      <c r="F194" t="n">
+        <v>10.131</v>
+      </c>
       <c r="G194" t="n">
         <v>14.389</v>
       </c>
       <c r="H194" t="n">
-        <v>-1.5901</v>
+        <v>1.5901</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -6867,14 +7253,16 @@
         <v>0.63856</v>
       </c>
       <c r="E195" t="n">
-        <v>1.0402</v>
-      </c>
-      <c r="F195" t="inlineStr"/>
+        <v>0.23697</v>
+      </c>
+      <c r="F195" t="n">
+        <v>10.131</v>
+      </c>
       <c r="G195" t="n">
         <v>14.389</v>
       </c>
       <c r="H195" t="n">
-        <v>-1.5901</v>
+        <v>1.5901</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -6900,14 +7288,16 @@
         <v>0.63809</v>
       </c>
       <c r="E196" t="n">
-        <v>1.0402</v>
-      </c>
-      <c r="F196" t="inlineStr"/>
+        <v>0.23597</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10.138</v>
+      </c>
       <c r="G196" t="n">
         <v>15.929</v>
       </c>
       <c r="H196" t="n">
-        <v>-1.5868</v>
+        <v>1.5868</v>
       </c>
       <c r="I196" t="inlineStr">
         <is>
@@ -6933,14 +7323,16 @@
         <v>0.63809</v>
       </c>
       <c r="E197" t="n">
-        <v>1.0402</v>
-      </c>
-      <c r="F197" t="inlineStr"/>
+        <v>0.23597</v>
+      </c>
+      <c r="F197" t="n">
+        <v>10.138</v>
+      </c>
       <c r="G197" t="n">
         <v>15.929</v>
       </c>
       <c r="H197" t="n">
-        <v>-1.5868</v>
+        <v>1.5868</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -6966,14 +7358,16 @@
         <v>0.63256</v>
       </c>
       <c r="E198" t="n">
-        <v>1.0408</v>
-      </c>
-      <c r="F198" t="inlineStr"/>
+        <v>0.2243</v>
+      </c>
+      <c r="F198" t="n">
+        <v>10.215</v>
+      </c>
       <c r="G198" t="n">
         <v>16.01</v>
       </c>
       <c r="H198" t="n">
-        <v>-1.5494</v>
+        <v>1.5494</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -6999,14 +7393,16 @@
         <v>0.63256</v>
       </c>
       <c r="E199" t="n">
-        <v>1.0408</v>
-      </c>
-      <c r="F199" t="inlineStr"/>
+        <v>0.2243</v>
+      </c>
+      <c r="F199" t="n">
+        <v>10.215</v>
+      </c>
       <c r="G199" t="n">
         <v>16.01</v>
       </c>
       <c r="H199" t="n">
-        <v>-1.5494</v>
+        <v>1.5494</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
@@ -7032,14 +7428,16 @@
         <v>0.63215</v>
       </c>
       <c r="E200" t="n">
-        <v>1.1226</v>
-      </c>
-      <c r="F200" t="inlineStr"/>
+        <v>0.53405</v>
+      </c>
+      <c r="F200" t="n">
+        <v>7.9168</v>
+      </c>
       <c r="G200" t="n">
         <v>13.21</v>
       </c>
       <c r="H200" t="n">
-        <v>-1.2889</v>
+        <v>6.4443</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -7065,14 +7463,16 @@
         <v>0.63215</v>
       </c>
       <c r="E201" t="n">
-        <v>1.1226</v>
-      </c>
-      <c r="F201" t="inlineStr"/>
+        <v>0.53405</v>
+      </c>
+      <c r="F201" t="n">
+        <v>7.9168</v>
+      </c>
       <c r="G201" t="n">
         <v>13.21</v>
       </c>
       <c r="H201" t="n">
-        <v>-1.2889</v>
+        <v>6.4443</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -7098,14 +7498,16 @@
         <v>0.63047</v>
       </c>
       <c r="E202" t="n">
-        <v>1.1232</v>
-      </c>
-      <c r="F202" t="inlineStr"/>
+        <v>0.53193</v>
+      </c>
+      <c r="F202" t="n">
+        <v>7.9349</v>
+      </c>
       <c r="G202" t="n">
         <v>13.172</v>
       </c>
       <c r="H202" t="n">
-        <v>-1.2796</v>
+        <v>6.3979</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -7131,14 +7533,16 @@
         <v>0.63047</v>
       </c>
       <c r="E203" t="n">
-        <v>1.1232</v>
-      </c>
-      <c r="F203" t="inlineStr"/>
+        <v>0.53193</v>
+      </c>
+      <c r="F203" t="n">
+        <v>7.9349</v>
+      </c>
       <c r="G203" t="n">
         <v>13.172</v>
       </c>
       <c r="H203" t="n">
-        <v>-1.2796</v>
+        <v>6.3979</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
@@ -7164,14 +7568,16 @@
         <v>0.62973</v>
       </c>
       <c r="E204" t="n">
-        <v>1.0463</v>
-      </c>
-      <c r="F204" t="inlineStr"/>
+        <v>0.29649</v>
+      </c>
+      <c r="F204" t="n">
+        <v>9.7279</v>
+      </c>
       <c r="G204" t="n">
         <v>14.309</v>
       </c>
       <c r="H204" t="n">
-        <v>-1.5118</v>
+        <v>1.8897</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
@@ -7197,14 +7603,16 @@
         <v>0.62973</v>
       </c>
       <c r="E205" t="n">
-        <v>1.0463</v>
-      </c>
-      <c r="F205" t="inlineStr"/>
+        <v>0.29649</v>
+      </c>
+      <c r="F205" t="n">
+        <v>9.7279</v>
+      </c>
       <c r="G205" t="n">
         <v>14.309</v>
       </c>
       <c r="H205" t="n">
-        <v>-1.5118</v>
+        <v>1.8897</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
@@ -7230,14 +7638,16 @@
         <v>0.62792</v>
       </c>
       <c r="E206" t="n">
-        <v>1.0744</v>
-      </c>
-      <c r="F206" t="inlineStr"/>
+        <v>0.45619</v>
+      </c>
+      <c r="F206" t="n">
+        <v>8.5527</v>
+      </c>
       <c r="G206" t="n">
         <v>16.01</v>
       </c>
       <c r="H206" t="n">
-        <v>-1.4063</v>
+        <v>3.6565</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
@@ -7263,14 +7673,16 @@
         <v>0.62792</v>
       </c>
       <c r="E207" t="n">
-        <v>1.0744</v>
-      </c>
-      <c r="F207" t="inlineStr"/>
+        <v>0.45619</v>
+      </c>
+      <c r="F207" t="n">
+        <v>8.5527</v>
+      </c>
       <c r="G207" t="n">
         <v>16.01</v>
       </c>
       <c r="H207" t="n">
-        <v>-1.4063</v>
+        <v>3.6565</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
@@ -7296,14 +7708,16 @@
         <v>0.62492</v>
       </c>
       <c r="E208" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="F208" t="inlineStr"/>
+        <v>0.52489</v>
+      </c>
+      <c r="F208" t="n">
+        <v>7.9943</v>
+      </c>
       <c r="G208" t="n">
         <v>13.114</v>
       </c>
       <c r="H208" t="n">
-        <v>-1.2495</v>
+        <v>6.2477</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
@@ -7329,14 +7743,16 @@
         <v>0.62492</v>
       </c>
       <c r="E209" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="F209" t="inlineStr"/>
+        <v>0.52489</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7.9943</v>
+      </c>
       <c r="G209" t="n">
         <v>13.114</v>
       </c>
       <c r="H209" t="n">
-        <v>-1.2495</v>
+        <v>6.2477</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
@@ -7362,14 +7778,16 @@
         <v>0.6237</v>
       </c>
       <c r="E210" t="n">
-        <v>1.1881</v>
-      </c>
-      <c r="F210" t="inlineStr"/>
+        <v>0.55315</v>
+      </c>
+      <c r="F210" t="n">
+        <v>7.7529</v>
+      </c>
       <c r="G210" t="n">
         <v>13.594</v>
       </c>
       <c r="H210" t="n">
-        <v>-1.105</v>
+        <v>8.8399</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
@@ -7395,14 +7813,16 @@
         <v>0.62336</v>
       </c>
       <c r="E211" t="n">
-        <v>1.1255</v>
-      </c>
-      <c r="F211" t="inlineStr"/>
+        <v>0.5229200000000001</v>
+      </c>
+      <c r="F211" t="n">
+        <v>8.010899999999999</v>
+      </c>
       <c r="G211" t="n">
         <v>13.219</v>
       </c>
       <c r="H211" t="n">
-        <v>-1.2413</v>
+        <v>6.2064</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
@@ -7428,14 +7848,16 @@
         <v>0.62336</v>
       </c>
       <c r="E212" t="n">
-        <v>1.1255</v>
-      </c>
-      <c r="F212" t="inlineStr"/>
+        <v>0.5229200000000001</v>
+      </c>
+      <c r="F212" t="n">
+        <v>8.010899999999999</v>
+      </c>
       <c r="G212" t="n">
         <v>13.219</v>
       </c>
       <c r="H212" t="n">
-        <v>-1.2413</v>
+        <v>6.2064</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
@@ -7461,14 +7883,16 @@
         <v>0.62324</v>
       </c>
       <c r="E213" t="n">
-        <v>1.1884</v>
-      </c>
-      <c r="F213" t="inlineStr"/>
+        <v>0.55259</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7.7577</v>
+      </c>
       <c r="G213" t="n">
         <v>13.608</v>
       </c>
       <c r="H213" t="n">
-        <v>-1.1028</v>
+        <v>8.8224</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
@@ -7494,14 +7918,16 @@
         <v>0.6226</v>
       </c>
       <c r="E214" t="n">
-        <v>1.0629</v>
-      </c>
-      <c r="F214" t="inlineStr"/>
+        <v>0.40244</v>
+      </c>
+      <c r="F214" t="n">
+        <v>8.9655</v>
+      </c>
       <c r="G214" t="n">
         <v>14.112</v>
       </c>
       <c r="H214" t="n">
-        <v>-1.414</v>
+        <v>2.828</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
@@ -7527,14 +7953,16 @@
         <v>0.6226</v>
       </c>
       <c r="E215" t="n">
-        <v>1.0629</v>
-      </c>
-      <c r="F215" t="inlineStr"/>
+        <v>0.40244</v>
+      </c>
+      <c r="F215" t="n">
+        <v>8.9655</v>
+      </c>
       <c r="G215" t="n">
         <v>14.112</v>
       </c>
       <c r="H215" t="n">
-        <v>-1.414</v>
+        <v>2.828</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
@@ -7560,14 +7988,16 @@
         <v>0.62118</v>
       </c>
       <c r="E216" t="n">
-        <v>1.1894</v>
-      </c>
-      <c r="F216" t="inlineStr"/>
+        <v>0.55015</v>
+      </c>
+      <c r="F216" t="n">
+        <v>7.7789</v>
+      </c>
       <c r="G216" t="n">
         <v>13.545</v>
       </c>
       <c r="H216" t="n">
-        <v>-1.0932</v>
+        <v>8.7454</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
@@ -7593,14 +8023,16 @@
         <v>0.62071</v>
       </c>
       <c r="E217" t="n">
-        <v>1.1896</v>
-      </c>
-      <c r="F217" t="inlineStr"/>
+        <v>0.54959</v>
+      </c>
+      <c r="F217" t="n">
+        <v>7.7837</v>
+      </c>
       <c r="G217" t="n">
         <v>13.548</v>
       </c>
       <c r="H217" t="n">
-        <v>-1.091</v>
+        <v>8.728</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
@@ -7626,14 +8058,16 @@
         <v>0.61849</v>
       </c>
       <c r="E218" t="n">
-        <v>1.1908</v>
-      </c>
-      <c r="F218" t="inlineStr"/>
+        <v>0.54696</v>
+      </c>
+      <c r="F218" t="n">
+        <v>7.8064</v>
+      </c>
       <c r="G218" t="n">
         <v>13.498</v>
       </c>
       <c r="H218" t="n">
-        <v>-1.0808</v>
+        <v>8.6463</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
@@ -7659,14 +8093,16 @@
         <v>0.61809</v>
       </c>
       <c r="E219" t="n">
-        <v>1.1273</v>
-      </c>
-      <c r="F219" t="inlineStr"/>
+        <v>0.51625</v>
+      </c>
+      <c r="F219" t="n">
+        <v>8.066599999999999</v>
+      </c>
       <c r="G219" t="n">
         <v>13.49</v>
       </c>
       <c r="H219" t="n">
-        <v>-1.2138</v>
+        <v>6.0692</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
@@ -7692,14 +8128,16 @@
         <v>0.61802</v>
       </c>
       <c r="E220" t="n">
-        <v>1.191</v>
-      </c>
-      <c r="F220" t="inlineStr"/>
+        <v>0.5464</v>
+      </c>
+      <c r="F220" t="n">
+        <v>7.8113</v>
+      </c>
       <c r="G220" t="n">
         <v>13.504</v>
       </c>
       <c r="H220" t="n">
-        <v>-1.0786</v>
+        <v>8.6289</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
@@ -7725,14 +8163,16 @@
         <v>0.6176199999999999</v>
       </c>
       <c r="E221" t="n">
-        <v>1.1275</v>
-      </c>
-      <c r="F221" t="inlineStr"/>
+        <v>0.5156500000000001</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8.0717</v>
+      </c>
       <c r="G221" t="n">
         <v>13.497</v>
       </c>
       <c r="H221" t="n">
-        <v>-1.2114</v>
+        <v>6.057</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
@@ -7758,14 +8198,16 @@
         <v>0.6167899999999999</v>
       </c>
       <c r="E222" t="n">
-        <v>1.1277</v>
-      </c>
-      <c r="F222" t="inlineStr"/>
+        <v>0.5145999999999999</v>
+      </c>
+      <c r="F222" t="n">
+        <v>8.080399999999999</v>
+      </c>
       <c r="G222" t="n">
         <v>13.098</v>
       </c>
       <c r="H222" t="n">
-        <v>-1.2072</v>
+        <v>6.0358</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
@@ -7791,14 +8233,16 @@
         <v>0.6167899999999999</v>
       </c>
       <c r="E223" t="n">
-        <v>1.1277</v>
-      </c>
-      <c r="F223" t="inlineStr"/>
+        <v>0.5145999999999999</v>
+      </c>
+      <c r="F223" t="n">
+        <v>8.080399999999999</v>
+      </c>
       <c r="G223" t="n">
         <v>13.098</v>
       </c>
       <c r="H223" t="n">
-        <v>-1.2072</v>
+        <v>6.0358</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
@@ -7824,14 +8268,16 @@
         <v>0.61526</v>
       </c>
       <c r="E224" t="n">
-        <v>1.1924</v>
-      </c>
-      <c r="F224" t="inlineStr"/>
+        <v>0.54312</v>
+      </c>
+      <c r="F224" t="n">
+        <v>7.8394</v>
+      </c>
       <c r="G224" t="n">
         <v>13.439</v>
       </c>
       <c r="H224" t="n">
-        <v>-1.0661</v>
+        <v>8.5289</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
@@ -7857,14 +8303,16 @@
         <v>0.61516</v>
       </c>
       <c r="E225" t="n">
-        <v>1.1924</v>
-      </c>
-      <c r="F225" t="inlineStr"/>
+        <v>0.543</v>
+      </c>
+      <c r="F225" t="n">
+        <v>7.8404</v>
+      </c>
       <c r="G225" t="n">
         <v>13.455</v>
       </c>
       <c r="H225" t="n">
-        <v>-1.0657</v>
+        <v>8.5253</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
@@ -7890,14 +8338,16 @@
         <v>0.61516</v>
       </c>
       <c r="E226" t="n">
-        <v>1.1924</v>
-      </c>
-      <c r="F226" t="inlineStr"/>
+        <v>0.543</v>
+      </c>
+      <c r="F226" t="n">
+        <v>7.8404</v>
+      </c>
       <c r="G226" t="n">
         <v>13.455</v>
       </c>
       <c r="H226" t="n">
-        <v>-1.0657</v>
+        <v>8.5253</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
@@ -7923,14 +8373,16 @@
         <v>0.61516</v>
       </c>
       <c r="E227" t="n">
-        <v>1.1924</v>
-      </c>
-      <c r="F227" t="inlineStr"/>
+        <v>0.543</v>
+      </c>
+      <c r="F227" t="n">
+        <v>7.8404</v>
+      </c>
       <c r="G227" t="n">
         <v>13.455</v>
       </c>
       <c r="H227" t="n">
-        <v>-1.0657</v>
+        <v>8.5253</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -7956,14 +8408,16 @@
         <v>0.6151</v>
       </c>
       <c r="E228" t="n">
-        <v>1.1283</v>
-      </c>
-      <c r="F228" t="inlineStr"/>
+        <v>0.51246</v>
+      </c>
+      <c r="F228" t="n">
+        <v>8.0982</v>
+      </c>
       <c r="G228" t="n">
         <v>13.278</v>
       </c>
       <c r="H228" t="n">
-        <v>-1.1986</v>
+        <v>5.9928</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
@@ -7989,14 +8443,16 @@
         <v>0.6151</v>
       </c>
       <c r="E229" t="n">
-        <v>1.1283</v>
-      </c>
-      <c r="F229" t="inlineStr"/>
+        <v>0.51246</v>
+      </c>
+      <c r="F229" t="n">
+        <v>8.0982</v>
+      </c>
       <c r="G229" t="n">
         <v>13.278</v>
       </c>
       <c r="H229" t="n">
-        <v>-1.1986</v>
+        <v>5.9928</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -8022,14 +8478,16 @@
         <v>0.61478</v>
       </c>
       <c r="E230" t="n">
-        <v>1.1926</v>
-      </c>
-      <c r="F230" t="inlineStr"/>
+        <v>0.54256</v>
+      </c>
+      <c r="F230" t="n">
+        <v>7.8443</v>
+      </c>
       <c r="G230" t="n">
         <v>13.446</v>
       </c>
       <c r="H230" t="n">
-        <v>-1.064</v>
+        <v>8.511699999999999</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -8055,14 +8513,16 @@
         <v>0.61424</v>
       </c>
       <c r="E231" t="n">
-        <v>1.1929</v>
-      </c>
-      <c r="F231" t="inlineStr"/>
+        <v>0.54191</v>
+      </c>
+      <c r="F231" t="n">
+        <v>7.8498</v>
+      </c>
       <c r="G231" t="n">
         <v>13.479</v>
       </c>
       <c r="H231" t="n">
-        <v>-1.0615</v>
+        <v>8.4923</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -8088,14 +8548,16 @@
         <v>0.61424</v>
       </c>
       <c r="E232" t="n">
-        <v>1.1929</v>
-      </c>
-      <c r="F232" t="inlineStr"/>
+        <v>0.54191</v>
+      </c>
+      <c r="F232" t="n">
+        <v>7.8498</v>
+      </c>
       <c r="G232" t="n">
         <v>13.479</v>
       </c>
       <c r="H232" t="n">
-        <v>-1.0615</v>
+        <v>8.4923</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -8121,14 +8583,16 @@
         <v>0.61424</v>
       </c>
       <c r="E233" t="n">
-        <v>1.1929</v>
-      </c>
-      <c r="F233" t="inlineStr"/>
+        <v>0.54191</v>
+      </c>
+      <c r="F233" t="n">
+        <v>7.8498</v>
+      </c>
       <c r="G233" t="n">
         <v>13.479</v>
       </c>
       <c r="H233" t="n">
-        <v>-1.0615</v>
+        <v>8.4923</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -8154,14 +8618,16 @@
         <v>0.60895</v>
       </c>
       <c r="E234" t="n">
-        <v>1.1955</v>
-      </c>
-      <c r="F234" t="inlineStr"/>
+        <v>0.5356300000000001</v>
+      </c>
+      <c r="F234" t="n">
+        <v>7.9034</v>
+      </c>
       <c r="G234" t="n">
         <v>13.385</v>
       </c>
       <c r="H234" t="n">
-        <v>-1.0381</v>
+        <v>8.305099999999999</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
@@ -8187,14 +8653,16 @@
         <v>0.60895</v>
       </c>
       <c r="E235" t="n">
-        <v>1.1955</v>
-      </c>
-      <c r="F235" t="inlineStr"/>
+        <v>0.5356300000000001</v>
+      </c>
+      <c r="F235" t="n">
+        <v>7.9034</v>
+      </c>
       <c r="G235" t="n">
         <v>13.385</v>
       </c>
       <c r="H235" t="n">
-        <v>-1.0381</v>
+        <v>8.305099999999999</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -8220,14 +8688,16 @@
         <v>0.60895</v>
       </c>
       <c r="E236" t="n">
-        <v>1.1955</v>
-      </c>
-      <c r="F236" t="inlineStr"/>
+        <v>0.5356300000000001</v>
+      </c>
+      <c r="F236" t="n">
+        <v>7.9034</v>
+      </c>
       <c r="G236" t="n">
         <v>13.385</v>
       </c>
       <c r="H236" t="n">
-        <v>-1.0381</v>
+        <v>8.305099999999999</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
@@ -8253,14 +8723,16 @@
         <v>0.60802</v>
       </c>
       <c r="E237" t="n">
-        <v>1.196</v>
-      </c>
-      <c r="F237" t="inlineStr"/>
+        <v>0.5345299999999999</v>
+      </c>
+      <c r="F237" t="n">
+        <v>7.9128</v>
+      </c>
       <c r="G237" t="n">
         <v>13.41</v>
       </c>
       <c r="H237" t="n">
-        <v>-1.0341</v>
+        <v>8.273</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
@@ -8286,14 +8758,16 @@
         <v>0.60802</v>
       </c>
       <c r="E238" t="n">
-        <v>1.196</v>
-      </c>
-      <c r="F238" t="inlineStr"/>
+        <v>0.5345299999999999</v>
+      </c>
+      <c r="F238" t="n">
+        <v>7.9128</v>
+      </c>
       <c r="G238" t="n">
         <v>13.41</v>
       </c>
       <c r="H238" t="n">
-        <v>-1.0341</v>
+        <v>8.273</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -8319,14 +8793,16 @@
         <v>0.60802</v>
       </c>
       <c r="E239" t="n">
-        <v>1.196</v>
-      </c>
-      <c r="F239" t="inlineStr"/>
+        <v>0.5345299999999999</v>
+      </c>
+      <c r="F239" t="n">
+        <v>7.9128</v>
+      </c>
       <c r="G239" t="n">
         <v>13.41</v>
       </c>
       <c r="H239" t="n">
-        <v>-1.0341</v>
+        <v>8.273</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
@@ -8352,14 +8828,16 @@
         <v>0.60205</v>
       </c>
       <c r="E240" t="n">
-        <v>1.199</v>
-      </c>
-      <c r="F240" t="inlineStr"/>
+        <v>0.52744</v>
+      </c>
+      <c r="F240" t="n">
+        <v>7.9728</v>
+      </c>
       <c r="G240" t="n">
         <v>13.327</v>
       </c>
       <c r="H240" t="n">
-        <v>-1.0086</v>
+        <v>8.0688</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -8385,14 +8863,16 @@
         <v>0.60205</v>
       </c>
       <c r="E241" t="n">
-        <v>1.199</v>
-      </c>
-      <c r="F241" t="inlineStr"/>
+        <v>0.52744</v>
+      </c>
+      <c r="F241" t="n">
+        <v>7.9728</v>
+      </c>
       <c r="G241" t="n">
         <v>13.327</v>
       </c>
       <c r="H241" t="n">
-        <v>-1.0086</v>
+        <v>8.0688</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
@@ -8418,14 +8898,16 @@
         <v>0.60205</v>
       </c>
       <c r="E242" t="n">
-        <v>1.199</v>
-      </c>
-      <c r="F242" t="inlineStr"/>
+        <v>0.52744</v>
+      </c>
+      <c r="F242" t="n">
+        <v>7.9728</v>
+      </c>
       <c r="G242" t="n">
         <v>13.327</v>
       </c>
       <c r="H242" t="n">
-        <v>-1.0086</v>
+        <v>8.0688</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -8451,14 +8933,16 @@
         <v>0.60114</v>
       </c>
       <c r="E243" t="n">
-        <v>1.1994</v>
-      </c>
-      <c r="F243" t="inlineStr"/>
+        <v>0.52635</v>
+      </c>
+      <c r="F243" t="n">
+        <v>7.982</v>
+      </c>
       <c r="G243" t="n">
         <v>13.351</v>
       </c>
       <c r="H243" t="n">
-        <v>-1.0047</v>
+        <v>8.038</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
@@ -8484,14 +8968,16 @@
         <v>0.60114</v>
       </c>
       <c r="E244" t="n">
-        <v>1.1994</v>
-      </c>
-      <c r="F244" t="inlineStr"/>
+        <v>0.52635</v>
+      </c>
+      <c r="F244" t="n">
+        <v>7.982</v>
+      </c>
       <c r="G244" t="n">
         <v>13.351</v>
       </c>
       <c r="H244" t="n">
-        <v>-1.0047</v>
+        <v>8.038</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -8517,14 +9003,16 @@
         <v>0.60114</v>
       </c>
       <c r="E245" t="n">
-        <v>1.1994</v>
-      </c>
-      <c r="F245" t="inlineStr"/>
+        <v>0.52635</v>
+      </c>
+      <c r="F245" t="n">
+        <v>7.982</v>
+      </c>
       <c r="G245" t="n">
         <v>13.351</v>
       </c>
       <c r="H245" t="n">
-        <v>-1.0047</v>
+        <v>8.038</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
@@ -8550,14 +9038,16 @@
         <v>0.59766</v>
       </c>
       <c r="E246" t="n">
-        <v>1.0575</v>
-      </c>
-      <c r="F246" t="inlineStr"/>
+        <v>0.30506</v>
+      </c>
+      <c r="F246" t="n">
+        <v>9.6685</v>
+      </c>
       <c r="G246" t="n">
         <v>13.595</v>
       </c>
       <c r="H246" t="n">
-        <v>-1.2998</v>
+        <v>2.0425</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
@@ -8583,14 +9073,16 @@
         <v>0.59766</v>
       </c>
       <c r="E247" t="n">
-        <v>1.0575</v>
-      </c>
-      <c r="F247" t="inlineStr"/>
+        <v>0.30506</v>
+      </c>
+      <c r="F247" t="n">
+        <v>9.6685</v>
+      </c>
       <c r="G247" t="n">
         <v>13.595</v>
       </c>
       <c r="H247" t="n">
-        <v>-1.2998</v>
+        <v>2.0425</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
@@ -8616,14 +9108,16 @@
         <v>0.58487</v>
       </c>
       <c r="E248" t="n">
-        <v>1.0593</v>
-      </c>
-      <c r="F248" t="inlineStr"/>
+        <v>0.28296</v>
+      </c>
+      <c r="F248" t="n">
+        <v>9.821</v>
+      </c>
       <c r="G248" t="n">
         <v>16.76</v>
       </c>
       <c r="H248" t="n">
-        <v>-1.2328</v>
+        <v>1.9372</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
@@ -8649,14 +9143,16 @@
         <v>0.58487</v>
       </c>
       <c r="E249" t="n">
-        <v>1.0593</v>
-      </c>
-      <c r="F249" t="inlineStr"/>
+        <v>0.28296</v>
+      </c>
+      <c r="F249" t="n">
+        <v>9.821</v>
+      </c>
       <c r="G249" t="n">
         <v>16.76</v>
       </c>
       <c r="H249" t="n">
-        <v>-1.2328</v>
+        <v>1.9372</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -8682,14 +9178,16 @@
         <v>0.56484</v>
       </c>
       <c r="E250" t="n">
-        <v>1.0435</v>
-      </c>
-      <c r="F250" t="inlineStr"/>
+        <v>-0.033516</v>
+      </c>
+      <c r="F250" t="n">
+        <v>11.791</v>
+      </c>
       <c r="G250" t="n">
         <v>17.436</v>
       </c>
       <c r="H250" t="n">
-        <v>-1.18</v>
+        <v>0.94399</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
@@ -8715,14 +9213,16 @@
         <v>0.56484</v>
       </c>
       <c r="E251" t="n">
-        <v>1.0435</v>
-      </c>
-      <c r="F251" t="inlineStr"/>
+        <v>-0.033516</v>
+      </c>
+      <c r="F251" t="n">
+        <v>11.791</v>
+      </c>
       <c r="G251" t="n">
         <v>17.436</v>
       </c>
       <c r="H251" t="n">
-        <v>-1.18</v>
+        <v>0.94399</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
@@ -8748,14 +9248,16 @@
         <v>0.55529</v>
       </c>
       <c r="E252" t="n">
-        <v>1.0556</v>
-      </c>
-      <c r="F252" t="inlineStr"/>
+        <v>0.15506</v>
+      </c>
+      <c r="F252" t="n">
+        <v>10.661</v>
+      </c>
       <c r="G252" t="n">
         <v>17.345</v>
       </c>
       <c r="H252" t="n">
-        <v>-1.1099</v>
+        <v>1.3874</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
@@ -8781,14 +9283,16 @@
         <v>0.55529</v>
       </c>
       <c r="E253" t="n">
-        <v>1.0556</v>
-      </c>
-      <c r="F253" t="inlineStr"/>
+        <v>0.15506</v>
+      </c>
+      <c r="F253" t="n">
+        <v>10.661</v>
+      </c>
       <c r="G253" t="n">
         <v>17.345</v>
       </c>
       <c r="H253" t="n">
-        <v>-1.1099</v>
+        <v>1.3874</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
@@ -8814,14 +9318,16 @@
         <v>0.54805</v>
       </c>
       <c r="E254" t="n">
-        <v>1.0452</v>
-      </c>
-      <c r="F254" t="inlineStr"/>
+        <v>-0.073375</v>
+      </c>
+      <c r="F254" t="n">
+        <v>12.016</v>
+      </c>
       <c r="G254" t="n">
         <v>20.703</v>
       </c>
       <c r="H254" t="n">
-        <v>-1.1024</v>
+        <v>0.88193</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
@@ -8847,14 +9353,16 @@
         <v>0.54805</v>
       </c>
       <c r="E255" t="n">
-        <v>1.0452</v>
-      </c>
-      <c r="F255" t="inlineStr"/>
+        <v>-0.073375</v>
+      </c>
+      <c r="F255" t="n">
+        <v>12.016</v>
+      </c>
       <c r="G255" t="n">
         <v>20.703</v>
       </c>
       <c r="H255" t="n">
-        <v>-1.1024</v>
+        <v>0.88193</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
@@ -8880,14 +9388,16 @@
         <v>0.53759</v>
       </c>
       <c r="E256" t="n">
-        <v>1.0925</v>
-      </c>
-      <c r="F256" t="inlineStr"/>
+        <v>0.32417</v>
+      </c>
+      <c r="F256" t="n">
+        <v>9.534599999999999</v>
+      </c>
       <c r="G256" t="n">
         <v>22.812</v>
       </c>
       <c r="H256" t="n">
-        <v>-0.96883</v>
+        <v>2.5189</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
@@ -8913,14 +9423,16 @@
         <v>0.53759</v>
       </c>
       <c r="E257" t="n">
-        <v>1.0925</v>
-      </c>
-      <c r="F257" t="inlineStr"/>
+        <v>0.32417</v>
+      </c>
+      <c r="F257" t="n">
+        <v>9.534599999999999</v>
+      </c>
       <c r="G257" t="n">
         <v>22.812</v>
       </c>
       <c r="H257" t="n">
-        <v>-0.96883</v>
+        <v>2.5189</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
@@ -8946,14 +9458,16 @@
         <v>0.49641</v>
       </c>
       <c r="E258" t="n">
-        <v>1.0504</v>
-      </c>
-      <c r="F258" t="inlineStr"/>
+        <v>-0.19603</v>
+      </c>
+      <c r="F258" t="n">
+        <v>12.684</v>
+      </c>
       <c r="G258" t="n">
         <v>16.919</v>
       </c>
       <c r="H258" t="n">
-        <v>-0.89613</v>
+        <v>0.7169</v>
       </c>
       <c r="I258" t="inlineStr">
         <is>
@@ -8979,14 +9493,16 @@
         <v>0.49641</v>
       </c>
       <c r="E259" t="n">
-        <v>1.0504</v>
-      </c>
-      <c r="F259" t="inlineStr"/>
+        <v>-0.19603</v>
+      </c>
+      <c r="F259" t="n">
+        <v>12.684</v>
+      </c>
       <c r="G259" t="n">
         <v>16.919</v>
       </c>
       <c r="H259" t="n">
-        <v>-0.89613</v>
+        <v>0.7169</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
@@ -9012,14 +9528,16 @@
         <v>0.49249</v>
       </c>
       <c r="E260" t="n">
-        <v>1.0634</v>
-      </c>
-      <c r="F260" t="inlineStr"/>
+        <v>0.035723</v>
+      </c>
+      <c r="F260" t="n">
+        <v>11.389</v>
+      </c>
       <c r="G260" t="n">
         <v>18.183</v>
       </c>
       <c r="H260" t="n">
-        <v>-0.8625699999999999</v>
+        <v>1.0782</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
@@ -9045,14 +9563,16 @@
         <v>0.49249</v>
       </c>
       <c r="E261" t="n">
-        <v>1.0634</v>
-      </c>
-      <c r="F261" t="inlineStr"/>
+        <v>0.035723</v>
+      </c>
+      <c r="F261" t="n">
+        <v>11.389</v>
+      </c>
       <c r="G261" t="n">
         <v>18.183</v>
       </c>
       <c r="H261" t="n">
-        <v>-0.8625699999999999</v>
+        <v>1.0782</v>
       </c>
       <c r="I261" t="inlineStr">
         <is>
@@ -9078,14 +9598,16 @@
         <v>0.4625</v>
       </c>
       <c r="E262" t="n">
-        <v>1.0597</v>
-      </c>
-      <c r="F262" t="inlineStr"/>
+        <v>-0.13472</v>
+      </c>
+      <c r="F262" t="n">
+        <v>12.355</v>
+      </c>
       <c r="G262" t="n">
         <v>23.944</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.77442</v>
+        <v>0.77442</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
@@ -9111,14 +9633,16 @@
         <v>0.4625</v>
       </c>
       <c r="E263" t="n">
-        <v>1.0597</v>
-      </c>
-      <c r="F263" t="inlineStr"/>
+        <v>-0.13472</v>
+      </c>
+      <c r="F263" t="n">
+        <v>12.355</v>
+      </c>
       <c r="G263" t="n">
         <v>23.944</v>
       </c>
       <c r="H263" t="n">
-        <v>-0.77442</v>
+        <v>0.77442</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
@@ -9144,14 +9668,16 @@
         <v>0.45286</v>
       </c>
       <c r="E264" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F264" t="inlineStr"/>
+        <v>-0.15507</v>
+      </c>
+      <c r="F264" t="n">
+        <v>12.465</v>
+      </c>
       <c r="G264" t="n">
         <v>26.105</v>
       </c>
       <c r="H264" t="n">
-        <v>-0.74492</v>
+        <v>0.74492</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
@@ -9177,14 +9703,16 @@
         <v>0.45286</v>
       </c>
       <c r="E265" t="n">
-        <v>1.0608</v>
-      </c>
-      <c r="F265" t="inlineStr"/>
+        <v>-0.15507</v>
+      </c>
+      <c r="F265" t="n">
+        <v>12.465</v>
+      </c>
       <c r="G265" t="n">
         <v>26.105</v>
       </c>
       <c r="H265" t="n">
-        <v>-0.74492</v>
+        <v>0.74492</v>
       </c>
       <c r="I265" t="inlineStr">
         <is>
@@ -9210,14 +9738,16 @@
         <v>0.39548</v>
       </c>
       <c r="E266" t="n">
-        <v>1.0672</v>
-      </c>
-      <c r="F266" t="inlineStr"/>
+        <v>-0.2762</v>
+      </c>
+      <c r="F266" t="n">
+        <v>13.102</v>
+      </c>
       <c r="G266" t="n">
         <v>19.298</v>
       </c>
       <c r="H266" t="n">
-        <v>-0.58879</v>
+        <v>0.58879</v>
       </c>
       <c r="I266" t="inlineStr">
         <is>
@@ -9243,14 +9773,16 @@
         <v>0.39548</v>
       </c>
       <c r="E267" t="n">
-        <v>1.0672</v>
-      </c>
-      <c r="F267" t="inlineStr"/>
+        <v>-0.2762</v>
+      </c>
+      <c r="F267" t="n">
+        <v>13.102</v>
+      </c>
       <c r="G267" t="n">
         <v>19.298</v>
       </c>
       <c r="H267" t="n">
-        <v>-0.58879</v>
+        <v>0.58879</v>
       </c>
       <c r="I267" t="inlineStr">
         <is>
@@ -9276,14 +9808,16 @@
         <v>0.39436</v>
       </c>
       <c r="E268" t="n">
-        <v>1.0757</v>
-      </c>
-      <c r="F268" t="inlineStr"/>
+        <v>-0.15072</v>
+      </c>
+      <c r="F268" t="n">
+        <v>12.441</v>
+      </c>
       <c r="G268" t="n">
         <v>27.842</v>
       </c>
       <c r="H268" t="n">
-        <v>-0.5788</v>
+        <v>0.72349</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
@@ -9309,14 +9843,16 @@
         <v>0.39436</v>
       </c>
       <c r="E269" t="n">
-        <v>1.0757</v>
-      </c>
-      <c r="F269" t="inlineStr"/>
+        <v>-0.15072</v>
+      </c>
+      <c r="F269" t="n">
+        <v>12.441</v>
+      </c>
       <c r="G269" t="n">
         <v>27.842</v>
       </c>
       <c r="H269" t="n">
-        <v>-0.5788</v>
+        <v>0.72349</v>
       </c>
       <c r="I269" t="inlineStr">
         <is>
@@ -9342,14 +9878,16 @@
         <v>0.38211</v>
       </c>
       <c r="E270" t="n">
-        <v>1.0883</v>
-      </c>
-      <c r="F270" t="inlineStr"/>
+        <v>-0.06726</v>
+      </c>
+      <c r="F270" t="n">
+        <v>11.982</v>
+      </c>
       <c r="G270" t="n">
         <v>19.026</v>
       </c>
       <c r="H270" t="n">
-        <v>-0.54112</v>
+        <v>0.85032</v>
       </c>
       <c r="I270" t="inlineStr">
         <is>
@@ -9375,14 +9913,16 @@
         <v>0.38211</v>
       </c>
       <c r="E271" t="n">
-        <v>1.0883</v>
-      </c>
-      <c r="F271" t="inlineStr"/>
+        <v>-0.06726</v>
+      </c>
+      <c r="F271" t="n">
+        <v>11.982</v>
+      </c>
       <c r="G271" t="n">
         <v>19.026</v>
       </c>
       <c r="H271" t="n">
-        <v>-0.54112</v>
+        <v>0.85032</v>
       </c>
       <c r="I271" t="inlineStr">
         <is>
@@ -9408,14 +9948,16 @@
         <v>0.32874</v>
       </c>
       <c r="E272" t="n">
-        <v>1.0746</v>
-      </c>
-      <c r="F272" t="inlineStr"/>
+        <v>-0.41711</v>
+      </c>
+      <c r="F272" t="n">
+        <v>13.807</v>
+      </c>
       <c r="G272" t="n">
         <v>31.421</v>
       </c>
       <c r="H272" t="n">
-        <v>-0.44076</v>
+        <v>0.44076</v>
       </c>
       <c r="I272" t="inlineStr">
         <is>
@@ -9441,14 +9983,16 @@
         <v>0.32874</v>
       </c>
       <c r="E273" t="n">
-        <v>1.0746</v>
-      </c>
-      <c r="F273" t="inlineStr"/>
+        <v>-0.41711</v>
+      </c>
+      <c r="F273" t="n">
+        <v>13.807</v>
+      </c>
       <c r="G273" t="n">
         <v>31.421</v>
       </c>
       <c r="H273" t="n">
-        <v>-0.44076</v>
+        <v>0.44076</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
@@ -9474,14 +10018,16 @@
         <v>0.27183</v>
       </c>
       <c r="E274" t="n">
-        <v>1.0728</v>
-      </c>
-      <c r="F274" t="inlineStr"/>
+        <v>-0.72941</v>
+      </c>
+      <c r="F274" t="n">
+        <v>15.252</v>
+      </c>
       <c r="G274" t="n">
         <v>20.489</v>
       </c>
       <c r="H274" t="n">
-        <v>-0.33937</v>
+        <v>0.27149</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
@@ -9507,14 +10053,16 @@
         <v>0.27183</v>
       </c>
       <c r="E275" t="n">
-        <v>1.0728</v>
-      </c>
-      <c r="F275" t="inlineStr"/>
+        <v>-0.72941</v>
+      </c>
+      <c r="F275" t="n">
+        <v>15.252</v>
+      </c>
       <c r="G275" t="n">
         <v>20.489</v>
       </c>
       <c r="H275" t="n">
-        <v>-0.33937</v>
+        <v>0.27149</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
@@ -9540,14 +10088,16 @@
         <v>0.17261</v>
       </c>
       <c r="E276" t="n">
-        <v>1.0919</v>
-      </c>
-      <c r="F276" t="inlineStr"/>
+        <v>-0.74671</v>
+      </c>
+      <c r="F276" t="n">
+        <v>15.328</v>
+      </c>
       <c r="G276" t="n">
         <v>34.912</v>
       </c>
       <c r="H276" t="n">
-        <v>-0.18776</v>
+        <v>0.18776</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
@@ -9573,14 +10123,16 @@
         <v>0.17261</v>
       </c>
       <c r="E277" t="n">
-        <v>1.0919</v>
-      </c>
-      <c r="F277" t="inlineStr"/>
+        <v>-0.74671</v>
+      </c>
+      <c r="F277" t="n">
+        <v>15.328</v>
+      </c>
       <c r="G277" t="n">
         <v>34.912</v>
       </c>
       <c r="H277" t="n">
-        <v>-0.18776</v>
+        <v>0.18776</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
@@ -9606,14 +10158,16 @@
         <v>-0.06582</v>
       </c>
       <c r="E278" t="n">
-        <v>1.1332</v>
-      </c>
-      <c r="F278" t="inlineStr"/>
+        <v>-1.0251</v>
+      </c>
+      <c r="F278" t="n">
+        <v>16.504</v>
+      </c>
       <c r="G278" t="n">
         <v>36.038</v>
       </c>
       <c r="H278" t="n">
-        <v>0.054893</v>
+        <v>-0.068617</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
@@ -9639,14 +10193,16 @@
         <v>-0.06582</v>
       </c>
       <c r="E279" t="n">
-        <v>1.1332</v>
-      </c>
-      <c r="F279" t="inlineStr"/>
+        <v>-1.0251</v>
+      </c>
+      <c r="F279" t="n">
+        <v>16.504</v>
+      </c>
       <c r="G279" t="n">
         <v>36.038</v>
       </c>
       <c r="H279" t="n">
-        <v>0.054893</v>
+        <v>-0.068617</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
@@ -9672,14 +10228,16 @@
         <v>-0.067761</v>
       </c>
       <c r="E280" t="n">
-        <v>1.178</v>
-      </c>
-      <c r="F280" t="inlineStr"/>
+        <v>-0.69062</v>
+      </c>
+      <c r="F280" t="n">
+        <v>15.08</v>
+      </c>
       <c r="G280" t="n">
         <v>41.304</v>
       </c>
       <c r="H280" t="n">
-        <v>0.054395</v>
+        <v>-0.10879</v>
       </c>
       <c r="I280" t="inlineStr">
         <is>
@@ -9705,14 +10263,16 @@
         <v>-0.067761</v>
       </c>
       <c r="E281" t="n">
-        <v>1.178</v>
-      </c>
-      <c r="F281" t="inlineStr"/>
+        <v>-0.69062</v>
+      </c>
+      <c r="F281" t="n">
+        <v>15.08</v>
+      </c>
       <c r="G281" t="n">
         <v>41.304</v>
       </c>
       <c r="H281" t="n">
-        <v>0.054395</v>
+        <v>-0.10879</v>
       </c>
       <c r="I281" t="inlineStr">
         <is>
@@ -9738,14 +10298,16 @@
         <v>-0.08957900000000001</v>
       </c>
       <c r="E282" t="n">
-        <v>1.1362</v>
-      </c>
-      <c r="F282" t="inlineStr"/>
+        <v>-1.0702</v>
+      </c>
+      <c r="F282" t="n">
+        <v>16.687</v>
+      </c>
       <c r="G282" t="n">
         <v>21.799</v>
       </c>
       <c r="H282" t="n">
-        <v>0.07308000000000001</v>
+        <v>-0.091349</v>
       </c>
       <c r="I282" t="inlineStr">
         <is>
@@ -9771,14 +10333,16 @@
         <v>-0.08957900000000001</v>
       </c>
       <c r="E283" t="n">
-        <v>1.1362</v>
-      </c>
-      <c r="F283" t="inlineStr"/>
+        <v>-1.0702</v>
+      </c>
+      <c r="F283" t="n">
+        <v>16.687</v>
+      </c>
       <c r="G283" t="n">
         <v>21.799</v>
       </c>
       <c r="H283" t="n">
-        <v>0.07308000000000001</v>
+        <v>-0.091349</v>
       </c>
       <c r="I283" t="inlineStr">
         <is>
@@ -9804,14 +10368,16 @@
         <v>-0.10129</v>
       </c>
       <c r="E284" t="n">
-        <v>1.1377</v>
-      </c>
-      <c r="F284" t="inlineStr"/>
+        <v>-1.0925</v>
+      </c>
+      <c r="F284" t="n">
+        <v>16.777</v>
+      </c>
       <c r="G284" t="n">
         <v>23.468</v>
       </c>
       <c r="H284" t="n">
-        <v>0.081756</v>
+        <v>-0.1022</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
@@ -9837,14 +10403,16 @@
         <v>-0.10129</v>
       </c>
       <c r="E285" t="n">
-        <v>1.1377</v>
-      </c>
-      <c r="F285" t="inlineStr"/>
+        <v>-1.0925</v>
+      </c>
+      <c r="F285" t="n">
+        <v>16.777</v>
+      </c>
       <c r="G285" t="n">
         <v>23.468</v>
       </c>
       <c r="H285" t="n">
-        <v>0.081756</v>
+        <v>-0.1022</v>
       </c>
       <c r="I285" t="inlineStr">
         <is>
@@ -9870,14 +10438,16 @@
         <v>-0.80837</v>
       </c>
       <c r="E286" t="n">
-        <v>1.3014</v>
-      </c>
-      <c r="F286" t="inlineStr"/>
+        <v>-1.8633</v>
+      </c>
+      <c r="F286" t="n">
+        <v>19.625</v>
+      </c>
       <c r="G286" t="n">
         <v>23.031</v>
       </c>
       <c r="H286" t="n">
-        <v>0.38316</v>
+        <v>-0.76632</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
@@ -9903,14 +10473,16 @@
         <v>-0.80837</v>
       </c>
       <c r="E287" t="n">
-        <v>1.3014</v>
-      </c>
-      <c r="F287" t="inlineStr"/>
+        <v>-1.8633</v>
+      </c>
+      <c r="F287" t="n">
+        <v>19.625</v>
+      </c>
       <c r="G287" t="n">
         <v>23.031</v>
       </c>
       <c r="H287" t="n">
-        <v>0.38316</v>
+        <v>-0.76632</v>
       </c>
       <c r="I287" t="inlineStr">
         <is>
@@ -9936,14 +10508,16 @@
         <v>-0.95629</v>
       </c>
       <c r="E288" t="n">
-        <v>1.3913</v>
-      </c>
-      <c r="F288" t="inlineStr"/>
+        <v>-1.8592</v>
+      </c>
+      <c r="F288" t="n">
+        <v>19.611</v>
+      </c>
       <c r="G288" t="n">
         <v>28.701</v>
       </c>
       <c r="H288" t="n">
-        <v>0.40736</v>
+        <v>-1.0591</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
@@ -9969,14 +10543,16 @@
         <v>-0.95629</v>
       </c>
       <c r="E289" t="n">
-        <v>1.3913</v>
-      </c>
-      <c r="F289" t="inlineStr"/>
+        <v>-1.8592</v>
+      </c>
+      <c r="F289" t="n">
+        <v>19.611</v>
+      </c>
       <c r="G289" t="n">
         <v>28.701</v>
       </c>
       <c r="H289" t="n">
-        <v>0.40736</v>
+        <v>-1.0591</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -10002,14 +10578,16 @@
         <v>-0.99571</v>
       </c>
       <c r="E290" t="n">
-        <v>1.2217</v>
-      </c>
-      <c r="F290" t="inlineStr"/>
+        <v>-3.2132</v>
+      </c>
+      <c r="F290" t="n">
+        <v>23.806</v>
+      </c>
       <c r="G290" t="n">
         <v>64.86199999999999</v>
       </c>
       <c r="H290" t="n">
-        <v>0.44903</v>
+        <v>-0.44903</v>
       </c>
       <c r="I290" t="inlineStr">
         <is>
@@ -10035,14 +10613,16 @@
         <v>-0.99571</v>
       </c>
       <c r="E291" t="n">
-        <v>1.2217</v>
-      </c>
-      <c r="F291" t="inlineStr"/>
+        <v>-3.2132</v>
+      </c>
+      <c r="F291" t="n">
+        <v>23.806</v>
+      </c>
       <c r="G291" t="n">
         <v>64.86199999999999</v>
       </c>
       <c r="H291" t="n">
-        <v>0.44903</v>
+        <v>-0.44903</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
@@ -10068,14 +10648,16 @@
         <v>-3.181</v>
       </c>
       <c r="E292" t="n">
-        <v>1.4646</v>
-      </c>
-      <c r="F292" t="inlineStr"/>
+        <v>-7.8265</v>
+      </c>
+      <c r="F292" t="n">
+        <v>34.457</v>
+      </c>
       <c r="G292" t="n">
         <v>99.18000000000001</v>
       </c>
       <c r="H292" t="n">
-        <v>0.68474</v>
+        <v>-0.68474</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
@@ -10101,14 +10683,16 @@
         <v>-3.181</v>
       </c>
       <c r="E293" t="n">
-        <v>1.4646</v>
-      </c>
-      <c r="F293" t="inlineStr"/>
+        <v>-7.8265</v>
+      </c>
+      <c r="F293" t="n">
+        <v>34.457</v>
+      </c>
       <c r="G293" t="n">
         <v>99.18000000000001</v>
       </c>
       <c r="H293" t="n">
-        <v>0.68474</v>
+        <v>-0.68474</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
@@ -10134,14 +10718,16 @@
         <v>-4.0078</v>
       </c>
       <c r="E294" t="n">
-        <v>1.626</v>
-      </c>
-      <c r="F294" t="inlineStr"/>
+        <v>-8.514799999999999</v>
+      </c>
+      <c r="F294" t="n">
+        <v>35.775</v>
+      </c>
       <c r="G294" t="n">
         <v>110.26</v>
       </c>
       <c r="H294" t="n">
-        <v>0.71139</v>
+        <v>-0.88923</v>
       </c>
       <c r="I294" t="inlineStr">
         <is>
@@ -10167,14 +10753,16 @@
         <v>-4.0078</v>
       </c>
       <c r="E295" t="n">
-        <v>1.626</v>
-      </c>
-      <c r="F295" t="inlineStr"/>
+        <v>-8.514799999999999</v>
+      </c>
+      <c r="F295" t="n">
+        <v>35.775</v>
+      </c>
       <c r="G295" t="n">
         <v>110.26</v>
       </c>
       <c r="H295" t="n">
-        <v>0.71139</v>
+        <v>-0.88923</v>
       </c>
       <c r="I295" t="inlineStr">
         <is>
@@ -10200,14 +10788,16 @@
         <v>-6.1726</v>
       </c>
       <c r="E296" t="n">
-        <v>1.8966</v>
-      </c>
-      <c r="F296" t="inlineStr"/>
+        <v>-12.628</v>
+      </c>
+      <c r="F296" t="n">
+        <v>42.815</v>
+      </c>
       <c r="G296" t="n">
         <v>96.8</v>
       </c>
       <c r="H296" t="n">
-        <v>0.76496</v>
+        <v>-0.9562</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
@@ -10233,14 +10823,16 @@
         <v>-6.1726</v>
       </c>
       <c r="E297" t="n">
-        <v>1.8966</v>
-      </c>
-      <c r="F297" t="inlineStr"/>
+        <v>-12.628</v>
+      </c>
+      <c r="F297" t="n">
+        <v>42.815</v>
+      </c>
       <c r="G297" t="n">
         <v>96.8</v>
       </c>
       <c r="H297" t="n">
-        <v>0.76496</v>
+        <v>-0.9562</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
@@ -10266,14 +10858,16 @@
         <v>-6.9124</v>
       </c>
       <c r="E298" t="n">
-        <v>1.989</v>
-      </c>
-      <c r="F298" t="inlineStr"/>
+        <v>-14.034</v>
+      </c>
+      <c r="F298" t="n">
+        <v>44.969</v>
+      </c>
       <c r="G298" t="n">
         <v>136.49</v>
       </c>
       <c r="H298" t="n">
-        <v>0.77655</v>
+        <v>-0.97068</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
@@ -10299,14 +10893,16 @@
         <v>-6.9124</v>
       </c>
       <c r="E299" t="n">
-        <v>1.989</v>
-      </c>
-      <c r="F299" t="inlineStr"/>
+        <v>-14.034</v>
+      </c>
+      <c r="F299" t="n">
+        <v>44.969</v>
+      </c>
       <c r="G299" t="n">
         <v>136.49</v>
       </c>
       <c r="H299" t="n">
-        <v>0.77655</v>
+        <v>-0.97068</v>
       </c>
       <c r="I299" t="inlineStr">
         <is>
@@ -10332,14 +10928,16 @@
         <v>-11.638</v>
       </c>
       <c r="E300" t="n">
-        <v>2.2638</v>
-      </c>
-      <c r="F300" t="inlineStr"/>
+        <v>-29.016</v>
+      </c>
+      <c r="F300" t="n">
+        <v>63.542</v>
+      </c>
       <c r="G300" t="n">
         <v>177.7</v>
       </c>
       <c r="H300" t="n">
-        <v>0.83716</v>
+        <v>-0.66973</v>
       </c>
       <c r="I300" t="inlineStr">
         <is>
@@ -10365,14 +10963,16 @@
         <v>-11.638</v>
       </c>
       <c r="E301" t="n">
-        <v>2.2638</v>
-      </c>
-      <c r="F301" t="inlineStr"/>
+        <v>-29.016</v>
+      </c>
+      <c r="F301" t="n">
+        <v>63.542</v>
+      </c>
       <c r="G301" t="n">
         <v>177.7</v>
       </c>
       <c r="H301" t="n">
-        <v>0.83716</v>
+        <v>-0.66973</v>
       </c>
       <c r="I301" t="inlineStr">
         <is>
@@ -10398,14 +10998,16 @@
         <v>-14.942</v>
       </c>
       <c r="E302" t="n">
-        <v>2.7713</v>
-      </c>
-      <c r="F302" t="inlineStr"/>
+        <v>-32.655</v>
+      </c>
+      <c r="F302" t="n">
+        <v>67.283</v>
+      </c>
       <c r="G302" t="n">
         <v>59.245</v>
       </c>
       <c r="H302" t="n">
-        <v>0.84354</v>
+        <v>-0.84354</v>
       </c>
       <c r="I302" t="inlineStr">
         <is>
@@ -10431,14 +11033,16 @@
         <v>-14.942</v>
       </c>
       <c r="E303" t="n">
-        <v>2.7713</v>
-      </c>
-      <c r="F303" t="inlineStr"/>
+        <v>-32.655</v>
+      </c>
+      <c r="F303" t="n">
+        <v>67.283</v>
+      </c>
       <c r="G303" t="n">
         <v>59.245</v>
       </c>
       <c r="H303" t="n">
-        <v>0.84354</v>
+        <v>-0.84354</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
@@ -10464,14 +11068,16 @@
         <v>-15.878</v>
       </c>
       <c r="E304" t="n">
-        <v>2.8754</v>
-      </c>
-      <c r="F304" t="inlineStr"/>
+        <v>-34.632</v>
+      </c>
+      <c r="F304" t="n">
+        <v>69.23099999999999</v>
+      </c>
       <c r="G304" t="n">
         <v>205.68</v>
       </c>
       <c r="H304" t="n">
-        <v>0.84668</v>
+        <v>-0.84668</v>
       </c>
       <c r="I304" t="inlineStr">
         <is>
@@ -10497,14 +11103,16 @@
         <v>-15.878</v>
       </c>
       <c r="E305" t="n">
-        <v>2.8754</v>
-      </c>
-      <c r="F305" t="inlineStr"/>
+        <v>-34.632</v>
+      </c>
+      <c r="F305" t="n">
+        <v>69.23099999999999</v>
+      </c>
       <c r="G305" t="n">
         <v>205.68</v>
       </c>
       <c r="H305" t="n">
-        <v>0.84668</v>
+        <v>-0.84668</v>
       </c>
       <c r="I305" t="inlineStr">
         <is>
@@ -10530,14 +11138,16 @@
         <v>-154.25</v>
       </c>
       <c r="E306" t="n">
-        <v>23.178</v>
-      </c>
-      <c r="F306" t="inlineStr"/>
+        <v>-267.16</v>
+      </c>
+      <c r="F306" t="n">
+        <v>189.92</v>
+      </c>
       <c r="G306" t="n">
         <v>629.3200000000001</v>
       </c>
       <c r="H306" t="n">
-        <v>0.86936</v>
+        <v>-1.3661</v>
       </c>
       <c r="I306" t="inlineStr">
         <is>
@@ -10563,14 +11173,16 @@
         <v>-154.25</v>
       </c>
       <c r="E307" t="n">
-        <v>23.178</v>
-      </c>
-      <c r="F307" t="inlineStr"/>
+        <v>-267.16</v>
+      </c>
+      <c r="F307" t="n">
+        <v>189.92</v>
+      </c>
       <c r="G307" t="n">
         <v>629.3200000000001</v>
       </c>
       <c r="H307" t="n">
-        <v>0.86936</v>
+        <v>-1.3661</v>
       </c>
       <c r="I307" t="inlineStr">
         <is>
@@ -10596,14 +11208,16 @@
         <v>-2276.6</v>
       </c>
       <c r="E308" t="n">
-        <v>254.07</v>
-      </c>
-      <c r="F308" t="inlineStr"/>
+        <v>-4807.4</v>
+      </c>
+      <c r="F308" t="n">
+        <v>804.23</v>
+      </c>
       <c r="G308" t="n">
         <v>869.74</v>
       </c>
       <c r="H308" t="n">
-        <v>0.8996</v>
+        <v>-0.8996</v>
       </c>
       <c r="I308" t="inlineStr">
         <is>
@@ -10629,14 +11243,16 @@
         <v>-2276.6</v>
       </c>
       <c r="E309" t="n">
-        <v>254.07</v>
-      </c>
-      <c r="F309" t="inlineStr"/>
+        <v>-4807.4</v>
+      </c>
+      <c r="F309" t="n">
+        <v>804.23</v>
+      </c>
       <c r="G309" t="n">
         <v>869.74</v>
       </c>
       <c r="H309" t="n">
-        <v>0.8996</v>
+        <v>-0.8996</v>
       </c>
       <c r="I309" t="inlineStr">
         <is>
@@ -10662,14 +11278,16 @@
         <v>0.63605</v>
       </c>
       <c r="E310" t="n">
-        <v>1.182</v>
-      </c>
-      <c r="F310" t="inlineStr"/>
+        <v>0.56781</v>
+      </c>
+      <c r="F310" t="n">
+        <v>7.6247</v>
+      </c>
       <c r="G310" t="n">
         <v>14.338</v>
       </c>
       <c r="H310" t="n">
-        <v>-1.1651</v>
+        <v>9.3207</v>
       </c>
       <c r="I310" t="inlineStr">
         <is>
@@ -10695,14 +11313,16 @@
         <v>0.63556</v>
       </c>
       <c r="E311" t="n">
-        <v>1.1822</v>
-      </c>
-      <c r="F311" t="inlineStr"/>
+        <v>0.56723</v>
+      </c>
+      <c r="F311" t="n">
+        <v>7.6298</v>
+      </c>
       <c r="G311" t="n">
         <v>14.356</v>
       </c>
       <c r="H311" t="n">
-        <v>-1.1626</v>
+        <v>9.3009</v>
       </c>
       <c r="I311" t="inlineStr">
         <is>
@@ -10728,14 +11348,16 @@
         <v>0.63415</v>
       </c>
       <c r="E312" t="n">
-        <v>1.1829</v>
-      </c>
-      <c r="F312" t="inlineStr"/>
+        <v>0.56555</v>
+      </c>
+      <c r="F312" t="n">
+        <v>7.6445</v>
+      </c>
       <c r="G312" t="n">
         <v>14.285</v>
       </c>
       <c r="H312" t="n">
-        <v>-1.1556</v>
+        <v>9.2446</v>
       </c>
       <c r="I312" t="inlineStr">
         <is>
@@ -10761,14 +11383,16 @@
         <v>0.63369</v>
       </c>
       <c r="E313" t="n">
-        <v>1.1832</v>
-      </c>
-      <c r="F313" t="inlineStr"/>
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F313" t="n">
+        <v>7.6494</v>
+      </c>
       <c r="G313" t="n">
         <v>14.294</v>
       </c>
       <c r="H313" t="n">
-        <v>-1.1533</v>
+        <v>9.226100000000001</v>
       </c>
       <c r="I313" t="inlineStr">
         <is>
@@ -10794,14 +11418,16 @@
         <v>0.63212</v>
       </c>
       <c r="E314" t="n">
-        <v>1.1839</v>
-      </c>
-      <c r="F314" t="inlineStr"/>
+        <v>0.56315</v>
+      </c>
+      <c r="F314" t="n">
+        <v>7.6657</v>
+      </c>
       <c r="G314" t="n">
         <v>14.23</v>
       </c>
       <c r="H314" t="n">
-        <v>-1.1455</v>
+        <v>9.164300000000001</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
@@ -10827,14 +11453,16 @@
         <v>0.63164</v>
       </c>
       <c r="E315" t="n">
-        <v>1.1842</v>
-      </c>
-      <c r="F315" t="inlineStr"/>
+        <v>0.56257</v>
+      </c>
+      <c r="F315" t="n">
+        <v>7.6707</v>
+      </c>
       <c r="G315" t="n">
         <v>14.242</v>
       </c>
       <c r="H315" t="n">
-        <v>-1.1432</v>
+        <v>9.145200000000001</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
@@ -10860,14 +11488,16 @@
         <v>0.62725</v>
       </c>
       <c r="E316" t="n">
-        <v>1.1864</v>
-      </c>
-      <c r="F316" t="inlineStr"/>
+        <v>0.55737</v>
+      </c>
+      <c r="F316" t="n">
+        <v>7.7162</v>
+      </c>
       <c r="G316" t="n">
         <v>14.125</v>
       </c>
       <c r="H316" t="n">
-        <v>-1.1219</v>
+        <v>8.9749</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
@@ -10893,14 +11523,16 @@
         <v>0.62682</v>
       </c>
       <c r="E317" t="n">
-        <v>1.1866</v>
-      </c>
-      <c r="F317" t="inlineStr"/>
+        <v>0.55685</v>
+      </c>
+      <c r="F317" t="n">
+        <v>7.7208</v>
+      </c>
       <c r="G317" t="n">
         <v>14.121</v>
       </c>
       <c r="H317" t="n">
-        <v>-1.1198</v>
+        <v>8.9582</v>
       </c>
       <c r="I317" t="inlineStr">
         <is>
@@ -10926,14 +11558,16 @@
         <v>0.62364</v>
       </c>
       <c r="E318" t="n">
-        <v>1.1882</v>
-      </c>
-      <c r="F318" t="inlineStr"/>
+        <v>0.55307</v>
+      </c>
+      <c r="F318" t="n">
+        <v>7.7536</v>
+      </c>
       <c r="G318" t="n">
         <v>14.528</v>
       </c>
       <c r="H318" t="n">
-        <v>-1.1047</v>
+        <v>8.837300000000001</v>
       </c>
       <c r="I318" t="inlineStr">
         <is>
@@ -10959,14 +11593,16 @@
         <v>0.61608</v>
       </c>
       <c r="E319" t="n">
-        <v>1.192</v>
-      </c>
-      <c r="F319" t="inlineStr"/>
+        <v>0.54409</v>
+      </c>
+      <c r="F319" t="n">
+        <v>7.8311</v>
+      </c>
       <c r="G319" t="n">
         <v>14.389</v>
       </c>
       <c r="H319" t="n">
-        <v>-1.0698</v>
+        <v>8.558299999999999</v>
       </c>
       <c r="I319" t="inlineStr">
         <is>
@@ -10992,14 +11628,16 @@
         <v>0.64097</v>
       </c>
       <c r="E320" t="n">
-        <v>1.1795</v>
-      </c>
-      <c r="F320" t="inlineStr"/>
+        <v>0.57365</v>
+      </c>
+      <c r="F320" t="n">
+        <v>7.573</v>
+      </c>
       <c r="G320" t="n">
         <v>15.036</v>
       </c>
       <c r="H320" t="n">
-        <v>-1.1902</v>
+        <v>9.5214</v>
       </c>
       <c r="I320" t="inlineStr">
         <is>
@@ -11025,14 +11663,16 @@
         <v>0.64053</v>
       </c>
       <c r="E321" t="n">
-        <v>1.1797</v>
-      </c>
-      <c r="F321" t="inlineStr"/>
+        <v>0.57313</v>
+      </c>
+      <c r="F321" t="n">
+        <v>7.5776</v>
+      </c>
       <c r="G321" t="n">
         <v>15.043</v>
       </c>
       <c r="H321" t="n">
-        <v>-1.1879</v>
+        <v>9.503399999999999</v>
       </c>
       <c r="I321" t="inlineStr">
         <is>
@@ -11058,14 +11698,16 @@
         <v>0.63948</v>
       </c>
       <c r="E322" t="n">
-        <v>1.1803</v>
-      </c>
-      <c r="F322" t="inlineStr"/>
+        <v>0.5718800000000001</v>
+      </c>
+      <c r="F322" t="n">
+        <v>7.5886</v>
+      </c>
       <c r="G322" t="n">
         <v>14.962</v>
       </c>
       <c r="H322" t="n">
-        <v>-1.1825</v>
+        <v>9.4602</v>
       </c>
       <c r="I322" t="inlineStr">
         <is>
@@ -11091,14 +11733,16 @@
         <v>0.6389899999999999</v>
       </c>
       <c r="E323" t="n">
-        <v>1.1805</v>
-      </c>
-      <c r="F323" t="inlineStr"/>
+        <v>0.5713</v>
+      </c>
+      <c r="F323" t="n">
+        <v>7.5938</v>
+      </c>
       <c r="G323" t="n">
         <v>14.976</v>
       </c>
       <c r="H323" t="n">
-        <v>-1.18</v>
+        <v>9.44</v>
       </c>
       <c r="I323" t="inlineStr">
         <is>
@@ -11124,14 +11768,16 @@
         <v>0.6377</v>
       </c>
       <c r="E324" t="n">
-        <v>1.1811</v>
-      </c>
-      <c r="F324" t="inlineStr"/>
+        <v>0.56977</v>
+      </c>
+      <c r="F324" t="n">
+        <v>7.6073</v>
+      </c>
       <c r="G324" t="n">
         <v>14.91</v>
       </c>
       <c r="H324" t="n">
-        <v>-1.1735</v>
+        <v>9.387600000000001</v>
       </c>
       <c r="I324" t="inlineStr">
         <is>
@@ -11157,14 +11803,16 @@
         <v>0.63726</v>
       </c>
       <c r="E325" t="n">
-        <v>1.1814</v>
-      </c>
-      <c r="F325" t="inlineStr"/>
+        <v>0.56925</v>
+      </c>
+      <c r="F325" t="n">
+        <v>7.612</v>
+      </c>
       <c r="G325" t="n">
         <v>14.916</v>
       </c>
       <c r="H325" t="n">
-        <v>-1.1712</v>
+        <v>9.3697</v>
       </c>
       <c r="I325" t="inlineStr">
         <is>
@@ -11190,14 +11838,16 @@
         <v>0.63348</v>
       </c>
       <c r="E326" t="n">
-        <v>1.1833</v>
-      </c>
-      <c r="F326" t="inlineStr"/>
+        <v>0.56476</v>
+      </c>
+      <c r="F326" t="n">
+        <v>7.6515</v>
+      </c>
       <c r="G326" t="n">
         <v>14.793</v>
       </c>
       <c r="H326" t="n">
-        <v>-1.1523</v>
+        <v>9.2181</v>
       </c>
       <c r="I326" t="inlineStr">
         <is>
@@ -11223,14 +11873,16 @@
         <v>0.63305</v>
       </c>
       <c r="E327" t="n">
-        <v>1.1835</v>
-      </c>
-      <c r="F327" t="inlineStr"/>
+        <v>0.56425</v>
+      </c>
+      <c r="F327" t="n">
+        <v>7.656</v>
+      </c>
       <c r="G327" t="n">
         <v>14.795</v>
       </c>
       <c r="H327" t="n">
-        <v>-1.1501</v>
+        <v>9.2011</v>
       </c>
       <c r="I327" t="inlineStr">
         <is>
@@ -11256,14 +11908,16 @@
         <v>0.63084</v>
       </c>
       <c r="E328" t="n">
-        <v>1.1846</v>
-      </c>
-      <c r="F328" t="inlineStr"/>
+        <v>0.56162</v>
+      </c>
+      <c r="F328" t="n">
+        <v>7.679</v>
+      </c>
       <c r="G328" t="n">
         <v>15.269</v>
       </c>
       <c r="H328" t="n">
-        <v>-1.1392</v>
+        <v>9.113899999999999</v>
       </c>
       <c r="I328" t="inlineStr">
         <is>
@@ -11289,14 +11943,16 @@
         <v>0.62919</v>
       </c>
       <c r="E329" t="n">
-        <v>1.1854</v>
-      </c>
-      <c r="F329" t="inlineStr"/>
+        <v>0.55966</v>
+      </c>
+      <c r="F329" t="n">
+        <v>7.6962</v>
+      </c>
       <c r="G329" t="n">
         <v>15.188</v>
       </c>
       <c r="H329" t="n">
-        <v>-1.1312</v>
+        <v>9.0496</v>
       </c>
       <c r="I329" t="inlineStr">
         <is>
